--- a/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
+++ b/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIURO\8. URBACT\1. DOKUMENTY BUDŻETOWE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C4F6C0-DEFF-4D32-A7F9-5432A86CBD74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135BE18B-98B1-4D42-9A61-695E967E1A4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL BUDGET" sheetId="1" r:id="rId1"/>
@@ -3772,10 +3772,8 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3784,25 +3782,17 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3810,26 +3800,32 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3876,37 +3872,35 @@
     <xf numFmtId="0" fontId="40" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3921,15 +3915,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="45" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3938,6 +3923,21 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4209,7 +4209,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="A19" sqref="A19:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33374,7 +33374,7 @@
       <c r="I48" s="26"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="324" t="s">
+      <c r="A49" s="329" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -33424,7 +33424,7 @@
       <c r="I50" s="26"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="324" t="s">
+      <c r="A51" s="329" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -33500,7 +33500,7 @@
       <c r="I53" s="26"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="327"/>
+      <c r="A54" s="330"/>
       <c r="B54" s="15" t="s">
         <v>53</v>
       </c>
@@ -33524,7 +33524,7 @@
       <c r="I54" s="26"/>
     </row>
     <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="324" t="s">
+      <c r="A55" s="329" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -33550,7 +33550,7 @@
       <c r="I55" s="26"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="328"/>
+      <c r="A56" s="324"/>
       <c r="B56" s="11" t="s">
         <v>56</v>
       </c>
@@ -33574,7 +33574,7 @@
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="328"/>
+      <c r="A57" s="324"/>
       <c r="B57" s="11" t="s">
         <v>57</v>
       </c>
@@ -33598,7 +33598,7 @@
       <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="328"/>
+      <c r="A58" s="324"/>
       <c r="B58" s="11" t="s">
         <v>58</v>
       </c>
@@ -33622,7 +33622,7 @@
       <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="328"/>
+      <c r="A59" s="324"/>
       <c r="B59" s="11" t="s">
         <v>59</v>
       </c>
@@ -33693,7 +33693,7 @@
       <c r="I61" s="26"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="327"/>
+      <c r="A62" s="330"/>
       <c r="B62" s="15" t="s">
         <v>62</v>
       </c>
@@ -33720,7 +33720,7 @@
       <c r="A63" s="322" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="323"/>
+      <c r="B63" s="328"/>
       <c r="C63" s="56">
         <f>C50+C52+C54+C60+C62</f>
         <v>333598.7928</v>
@@ -33778,7 +33778,7 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="328" t="s">
+      <c r="A68" s="324" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="104" t="s">
@@ -33800,7 +33800,7 @@
       <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="328"/>
+      <c r="A69" s="324"/>
       <c r="B69" s="52">
         <v>401</v>
       </c>
@@ -33817,7 +33817,7 @@
       <c r="H69" s="26"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="328"/>
+      <c r="A70" s="324"/>
       <c r="B70" s="51">
         <v>4018</v>
       </c>
@@ -33845,7 +33845,7 @@
       <c r="I70" s="102"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="328"/>
+      <c r="A71" s="324"/>
       <c r="B71" s="51">
         <v>4019</v>
       </c>
@@ -33877,7 +33877,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="328"/>
+      <c r="A72" s="324"/>
       <c r="B72" s="52">
         <v>411</v>
       </c>
@@ -33902,7 +33902,7 @@
       <c r="I72" s="102"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="328"/>
+      <c r="A73" s="324"/>
       <c r="B73" s="51">
         <v>4118</v>
       </c>
@@ -33936,7 +33936,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="328"/>
+      <c r="A74" s="324"/>
       <c r="B74" s="51">
         <v>4119</v>
       </c>
@@ -33956,7 +33956,7 @@
       <c r="H74" s="26"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="328"/>
+      <c r="A75" s="324"/>
       <c r="B75" s="52">
         <v>412</v>
       </c>
@@ -33977,7 +33977,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="328"/>
+      <c r="A76" s="324"/>
       <c r="B76" s="51">
         <v>4128</v>
       </c>
@@ -33997,7 +33997,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="328"/>
+      <c r="A77" s="324"/>
       <c r="B77" s="51">
         <v>4129</v>
       </c>
@@ -34017,7 +34017,7 @@
       <c r="H77" s="26"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="328"/>
+      <c r="A78" s="324"/>
       <c r="B78" s="82"/>
       <c r="C78" s="83">
         <f>C77+C76+C74+C73+C71+C70</f>
@@ -34103,7 +34103,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="328" t="s">
+      <c r="A83" s="324" t="s">
         <v>48</v>
       </c>
       <c r="B83" s="49">
@@ -34125,7 +34125,7 @@
       <c r="H83" s="26"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="328"/>
+      <c r="A84" s="324"/>
       <c r="B84" s="75"/>
       <c r="C84" s="76">
         <f>C82+C83</f>
@@ -34185,7 +34185,7 @@
       <c r="H86" s="26"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="330"/>
+      <c r="A87" s="327"/>
       <c r="B87" s="50">
         <v>4428</v>
       </c>
@@ -34205,7 +34205,7 @@
       <c r="H87" s="26"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="330"/>
+      <c r="A88" s="327"/>
       <c r="B88" s="50">
         <v>4429</v>
       </c>
@@ -34225,7 +34225,7 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="330"/>
+      <c r="A89" s="327"/>
       <c r="B89" s="79"/>
       <c r="C89" s="93">
         <f>C87+C88</f>
@@ -34263,7 +34263,7 @@
       <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A91" s="328" t="s">
+      <c r="A91" s="324" t="s">
         <v>54</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -34285,7 +34285,7 @@
       <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="328"/>
+      <c r="A92" s="324"/>
       <c r="B92" s="11" t="s">
         <v>66</v>
       </c>
@@ -34305,7 +34305,7 @@
       <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="328"/>
+      <c r="A93" s="324"/>
       <c r="B93" s="11" t="s">
         <v>67</v>
       </c>
@@ -34325,7 +34325,7 @@
       <c r="H93" s="26"/>
     </row>
     <row r="94" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A94" s="328"/>
+      <c r="A94" s="324"/>
       <c r="B94" s="11" t="s">
         <v>68</v>
       </c>
@@ -34345,7 +34345,7 @@
       <c r="H94" s="26"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="328"/>
+      <c r="A95" s="324"/>
       <c r="B95" s="11" t="s">
         <v>69</v>
       </c>
@@ -34365,7 +34365,7 @@
       <c r="H95" s="26"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="328"/>
+      <c r="A96" s="324"/>
       <c r="B96" s="50">
         <v>4178</v>
       </c>
@@ -34384,7 +34384,7 @@
       <c r="H96" s="26"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="328"/>
+      <c r="A97" s="324"/>
       <c r="B97" s="50">
         <v>4179</v>
       </c>
@@ -34403,7 +34403,7 @@
       <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="328"/>
+      <c r="A98" s="324"/>
       <c r="B98" s="50">
         <v>4308</v>
       </c>
@@ -34420,7 +34420,7 @@
       <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="328"/>
+      <c r="A99" s="324"/>
       <c r="B99" s="50">
         <v>4309</v>
       </c>
@@ -34437,7 +34437,7 @@
       <c r="H99" s="26"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="328"/>
+      <c r="A100" s="324"/>
       <c r="B100" s="50">
         <v>4398</v>
       </c>
@@ -34456,7 +34456,7 @@
       <c r="H100" s="26"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="328"/>
+      <c r="A101" s="324"/>
       <c r="B101" s="50">
         <v>4399</v>
       </c>
@@ -34475,7 +34475,7 @@
       <c r="H101" s="26"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="328"/>
+      <c r="A102" s="324"/>
       <c r="B102" s="79"/>
       <c r="C102" s="93">
         <f>SUM(C96:C101)</f>
@@ -34558,7 +34558,7 @@
       <c r="A106" s="322" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="329"/>
+      <c r="B106" s="323"/>
       <c r="C106" s="56">
         <f>C79+C85+C90+C103+C105</f>
         <v>333598.7928</v>
@@ -38248,18 +38248,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A68:A79"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A6:A8"/>
@@ -38267,11 +38260,18 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A68:A79"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="A104:A105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -38291,8 +38291,8 @@
   </sheetPr>
   <dimension ref="A2:G41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38323,7 +38323,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="328" t="s">
+      <c r="A3" s="324" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="112" t="s">
@@ -38340,7 +38340,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="328"/>
+      <c r="A4" s="324"/>
       <c r="B4" s="52">
         <v>401</v>
       </c>
@@ -38355,7 +38355,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="328"/>
+      <c r="A5" s="324"/>
       <c r="B5" s="51">
         <v>4018</v>
       </c>
@@ -38370,7 +38370,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="328"/>
+      <c r="A6" s="324"/>
       <c r="B6" s="51">
         <v>4019</v>
       </c>
@@ -38385,7 +38385,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="328"/>
+      <c r="A7" s="324"/>
       <c r="B7" s="52">
         <v>411</v>
       </c>
@@ -38400,7 +38400,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="328"/>
+      <c r="A8" s="324"/>
       <c r="B8" s="51">
         <v>4118</v>
       </c>
@@ -38415,7 +38415,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="328"/>
+      <c r="A9" s="324"/>
       <c r="B9" s="51">
         <v>4119</v>
       </c>
@@ -38430,7 +38430,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="328"/>
+      <c r="A10" s="324"/>
       <c r="B10" s="52">
         <v>412</v>
       </c>
@@ -38445,7 +38445,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="328"/>
+      <c r="A11" s="324"/>
       <c r="B11" s="51">
         <v>4128</v>
       </c>
@@ -38460,7 +38460,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="328"/>
+      <c r="A12" s="324"/>
       <c r="B12" s="51">
         <v>4129</v>
       </c>
@@ -38476,7 +38476,7 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="328"/>
+      <c r="A13" s="324"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83">
         <v>104368.534</v>
@@ -38545,7 +38545,7 @@
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="328" t="s">
+      <c r="A18" s="324" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="49">
@@ -38563,7 +38563,7 @@
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="328"/>
+      <c r="A19" s="324"/>
       <c r="B19" s="75"/>
       <c r="C19" s="76">
         <v>3131.0328</v>
@@ -38611,7 +38611,7 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="330"/>
+      <c r="A22" s="327"/>
       <c r="B22" s="50">
         <v>4428</v>
       </c>
@@ -38627,7 +38627,7 @@
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="330"/>
+      <c r="A23" s="327"/>
       <c r="B23" s="50">
         <v>4429</v>
       </c>
@@ -38643,7 +38643,7 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="330"/>
+      <c r="A24" s="327"/>
       <c r="B24" s="79"/>
       <c r="C24" s="93">
         <v>100912</v>
@@ -38673,7 +38673,7 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="328" t="s">
+      <c r="A26" s="324" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -38691,7 +38691,7 @@
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="328"/>
+      <c r="A27" s="324"/>
       <c r="B27" s="11" t="s">
         <v>66</v>
       </c>
@@ -38707,7 +38707,7 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="328"/>
+      <c r="A28" s="324"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -38723,7 +38723,7 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="328"/>
+      <c r="A29" s="324"/>
       <c r="B29" s="11" t="s">
         <v>68</v>
       </c>
@@ -38739,7 +38739,7 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="328"/>
+      <c r="A30" s="324"/>
       <c r="B30" s="11" t="s">
         <v>69</v>
       </c>
@@ -38755,7 +38755,7 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="328"/>
+      <c r="A31" s="324"/>
       <c r="B31" s="50">
         <v>4178</v>
       </c>
@@ -38771,7 +38771,7 @@
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="328"/>
+      <c r="A32" s="324"/>
       <c r="B32" s="50">
         <v>4179</v>
       </c>
@@ -38787,7 +38787,7 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="328"/>
+      <c r="A33" s="324"/>
       <c r="B33" s="50">
         <v>4308</v>
       </c>
@@ -38803,7 +38803,7 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="328"/>
+      <c r="A34" s="324"/>
       <c r="B34" s="50">
         <v>4309</v>
       </c>
@@ -38823,7 +38823,7 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="328"/>
+      <c r="A35" s="324"/>
       <c r="B35" s="50">
         <v>4398</v>
       </c>
@@ -38839,7 +38839,7 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="328"/>
+      <c r="A36" s="324"/>
       <c r="B36" s="50">
         <v>4399</v>
       </c>
@@ -38855,7 +38855,7 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="328"/>
+      <c r="A37" s="324"/>
       <c r="B37" s="79"/>
       <c r="C37" s="93">
         <v>125188</v>
@@ -38922,7 +38922,7 @@
       <c r="A41" s="322" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="329"/>
+      <c r="B41" s="323"/>
       <c r="C41" s="56">
         <v>333598.7928</v>
       </c>
@@ -38952,8 +38952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39044,13 +39044,13 @@
       <c r="V1" s="292"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="347" t="s">
+      <c r="A2" s="345" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="335" t="s">
+      <c r="B2" s="331" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="335" t="s">
+      <c r="C2" s="331" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="168" t="s">
@@ -39088,9 +39088,9 @@
       <c r="S2" s="296"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="348"/>
-      <c r="B3" s="336"/>
-      <c r="C3" s="336"/>
+      <c r="A3" s="346"/>
+      <c r="B3" s="332"/>
+      <c r="C3" s="332"/>
       <c r="D3" s="168" t="s">
         <v>150</v>
       </c>
@@ -39126,11 +39126,11 @@
       <c r="S3" s="296"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="348"/>
-      <c r="B4" s="335" t="s">
+      <c r="A4" s="346"/>
+      <c r="B4" s="331" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="335" t="s">
+      <c r="C4" s="331" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="168" t="s">
@@ -39168,9 +39168,9 @@
       <c r="S4" s="296"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="348"/>
-      <c r="B5" s="336"/>
-      <c r="C5" s="336"/>
+      <c r="A5" s="346"/>
+      <c r="B5" s="332"/>
+      <c r="C5" s="332"/>
       <c r="D5" s="168" t="s">
         <v>152</v>
       </c>
@@ -39206,11 +39206,11 @@
       <c r="S5" s="296"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="348"/>
-      <c r="B6" s="335" t="s">
+      <c r="A6" s="346"/>
+      <c r="B6" s="331" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="335" t="s">
+      <c r="C6" s="331" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="168" t="s">
@@ -39248,9 +39248,9 @@
       <c r="S6" s="296"/>
     </row>
     <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="348"/>
-      <c r="B7" s="336"/>
-      <c r="C7" s="336"/>
+      <c r="A7" s="346"/>
+      <c r="B7" s="332"/>
+      <c r="C7" s="332"/>
       <c r="D7" s="168" t="s">
         <v>154</v>
       </c>
@@ -39286,7 +39286,7 @@
       <c r="S7" s="296"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="349"/>
+      <c r="A8" s="347"/>
       <c r="B8" s="133"/>
       <c r="C8" s="136"/>
       <c r="D8" s="145"/>
@@ -39329,13 +39329,13 @@
       <c r="S8" s="298"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="350" t="s">
+      <c r="A9" s="348" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="335" t="s">
+      <c r="B9" s="331" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="361" t="s">
+      <c r="C9" s="335" t="s">
         <v>140</v>
       </c>
       <c r="D9" s="156" t="s">
@@ -39373,9 +39373,9 @@
       <c r="S9" s="296"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="351"/>
-      <c r="B10" s="336"/>
-      <c r="C10" s="362"/>
+      <c r="A10" s="349"/>
+      <c r="B10" s="332"/>
+      <c r="C10" s="336"/>
       <c r="D10" s="173" t="s">
         <v>156</v>
       </c>
@@ -39411,7 +39411,7 @@
       <c r="S10" s="296"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="352"/>
+      <c r="A11" s="350"/>
       <c r="B11" s="134"/>
       <c r="C11" s="135"/>
       <c r="D11" s="130"/>
@@ -39454,13 +39454,13 @@
       <c r="S11" s="300"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="353" t="s">
+      <c r="A12" s="351" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="359" t="s">
+      <c r="B12" s="333" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="363" t="s">
+      <c r="C12" s="337" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="168" t="s">
@@ -39508,9 +39508,9 @@
       <c r="X12" s="290"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="354"/>
-      <c r="B13" s="360"/>
-      <c r="C13" s="364"/>
+      <c r="A13" s="352"/>
+      <c r="B13" s="334"/>
+      <c r="C13" s="338"/>
       <c r="D13" s="168" t="s">
         <v>158</v>
       </c>
@@ -39556,11 +39556,11 @@
       <c r="X13" s="290"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="354"/>
-      <c r="B14" s="339" t="s">
+      <c r="A14" s="352"/>
+      <c r="B14" s="340" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="364"/>
+      <c r="C14" s="338"/>
       <c r="D14" s="168" t="s">
         <v>161</v>
       </c>
@@ -39603,9 +39603,9 @@
       <c r="X14" s="290"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="354"/>
-      <c r="B15" s="366"/>
-      <c r="C15" s="364"/>
+      <c r="A15" s="352"/>
+      <c r="B15" s="341"/>
+      <c r="C15" s="338"/>
       <c r="D15" s="168" t="s">
         <v>162</v>
       </c>
@@ -39648,11 +39648,11 @@
       <c r="X15" s="290"/>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="354"/>
-      <c r="B16" s="344" t="s">
+      <c r="A16" s="352"/>
+      <c r="B16" s="342" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="364"/>
+      <c r="C16" s="338"/>
       <c r="D16" s="168" t="s">
         <v>194</v>
       </c>
@@ -39698,9 +39698,9 @@
       <c r="X16" s="290"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="354"/>
-      <c r="B17" s="344"/>
-      <c r="C17" s="365"/>
+      <c r="A17" s="352"/>
+      <c r="B17" s="342"/>
+      <c r="C17" s="339"/>
       <c r="D17" s="168" t="s">
         <v>195</v>
       </c>
@@ -39746,7 +39746,7 @@
       <c r="X17" s="290"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="355"/>
+      <c r="A18" s="353"/>
       <c r="B18" s="131"/>
       <c r="C18" s="132"/>
       <c r="D18" s="153"/>
@@ -39799,13 +39799,13 @@
       <c r="X18" s="290"/>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="356" t="s">
+      <c r="A19" s="354" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="335" t="s">
+      <c r="B19" s="331" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="337" t="s">
+      <c r="C19" s="361" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="156" t="s">
@@ -39851,9 +39851,9 @@
       <c r="X19" s="290"/>
     </row>
     <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="357"/>
-      <c r="B20" s="336"/>
-      <c r="C20" s="338"/>
+      <c r="A20" s="355"/>
+      <c r="B20" s="332"/>
+      <c r="C20" s="362"/>
       <c r="D20" s="122" t="s">
         <v>160</v>
       </c>
@@ -39897,7 +39897,7 @@
       <c r="X20" s="290"/>
     </row>
     <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="357"/>
+      <c r="A21" s="355"/>
       <c r="B21" s="243"/>
       <c r="C21" s="244"/>
       <c r="D21" s="245" t="s">
@@ -39943,11 +39943,11 @@
       <c r="X21" s="290"/>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="357"/>
-      <c r="B22" s="335" t="s">
+      <c r="A22" s="355"/>
+      <c r="B22" s="331" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="339" t="s">
+      <c r="C22" s="340" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="168" t="s">
@@ -39993,9 +39993,9 @@
       <c r="X22" s="290"/>
     </row>
     <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="357"/>
-      <c r="B23" s="343"/>
-      <c r="C23" s="340"/>
+      <c r="A23" s="355"/>
+      <c r="B23" s="366"/>
+      <c r="C23" s="363"/>
       <c r="D23" s="168" t="s">
         <v>162</v>
       </c>
@@ -40039,9 +40039,9 @@
       <c r="X23" s="290"/>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="357"/>
-      <c r="B24" s="343"/>
-      <c r="C24" s="339" t="s">
+      <c r="A24" s="355"/>
+      <c r="B24" s="366"/>
+      <c r="C24" s="340" t="s">
         <v>139</v>
       </c>
       <c r="D24" s="168" t="s">
@@ -40087,9 +40087,9 @@
       <c r="X24" s="290"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="357"/>
-      <c r="B25" s="343"/>
-      <c r="C25" s="340"/>
+      <c r="A25" s="355"/>
+      <c r="B25" s="366"/>
+      <c r="C25" s="363"/>
       <c r="D25" s="168" t="s">
         <v>162</v>
       </c>
@@ -40133,9 +40133,9 @@
       <c r="X25" s="290"/>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="357"/>
-      <c r="B26" s="343"/>
-      <c r="C26" s="339" t="s">
+      <c r="A26" s="355"/>
+      <c r="B26" s="366"/>
+      <c r="C26" s="340" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="168" t="s">
@@ -40183,9 +40183,9 @@
       <c r="X26" s="290"/>
     </row>
     <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="357"/>
-      <c r="B27" s="343"/>
-      <c r="C27" s="340"/>
+      <c r="A27" s="355"/>
+      <c r="B27" s="366"/>
+      <c r="C27" s="363"/>
       <c r="D27" s="168" t="s">
         <v>162</v>
       </c>
@@ -40231,7 +40231,7 @@
       <c r="X27" s="290"/>
     </row>
     <row r="28" spans="1:24" s="237" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="357"/>
+      <c r="A28" s="355"/>
       <c r="B28" s="249"/>
       <c r="C28" s="244"/>
       <c r="D28" s="239" t="s">
@@ -40289,11 +40289,11 @@
       <c r="X28" s="291"/>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="357"/>
-      <c r="B29" s="344" t="s">
+      <c r="A29" s="355"/>
+      <c r="B29" s="342" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="339" t="s">
+      <c r="C29" s="340" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="168" t="s">
@@ -40340,9 +40340,9 @@
       <c r="X29" s="290"/>
     </row>
     <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="357"/>
-      <c r="B30" s="344"/>
-      <c r="C30" s="340"/>
+      <c r="A30" s="355"/>
+      <c r="B30" s="342"/>
+      <c r="C30" s="363"/>
       <c r="D30" s="168" t="s">
         <v>210</v>
       </c>
@@ -40387,7 +40387,7 @@
       <c r="X30" s="290"/>
     </row>
     <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="357"/>
+      <c r="A31" s="355"/>
       <c r="B31" s="250"/>
       <c r="C31" s="251"/>
       <c r="D31" s="252" t="s">
@@ -40424,11 +40424,11 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="357"/>
-      <c r="B32" s="333" t="s">
+      <c r="A32" s="355"/>
+      <c r="B32" s="359" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="341" t="s">
+      <c r="C32" s="364" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="122" t="s">
@@ -40472,9 +40472,9 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="357"/>
-      <c r="B33" s="334"/>
-      <c r="C33" s="342"/>
+      <c r="A33" s="355"/>
+      <c r="B33" s="360"/>
+      <c r="C33" s="365"/>
       <c r="D33" s="126" t="s">
         <v>164</v>
       </c>
@@ -40516,7 +40516,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="357"/>
+      <c r="A34" s="355"/>
       <c r="B34" s="256"/>
       <c r="C34" s="257"/>
       <c r="D34" s="258" t="s">
@@ -40566,7 +40566,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="358"/>
+      <c r="A35" s="356"/>
       <c r="B35" s="137"/>
       <c r="C35" s="138"/>
       <c r="D35" s="159"/>
@@ -40614,7 +40614,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="345" t="s">
+      <c r="A36" s="343" t="s">
         <v>137</v>
       </c>
       <c r="B36" s="116" t="s">
@@ -40660,7 +40660,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="346"/>
+      <c r="A37" s="344"/>
       <c r="B37" s="162"/>
       <c r="C37" s="163"/>
       <c r="D37" s="228"/>
@@ -40701,11 +40701,11 @@
     </row>
     <row r="38" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="129"/>
-      <c r="B38" s="331" t="s">
+      <c r="B38" s="357" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="331"/>
-      <c r="D38" s="332"/>
+      <c r="C38" s="357"/>
+      <c r="D38" s="358"/>
       <c r="E38" s="148">
         <v>333598.7928</v>
       </c>
@@ -40830,6 +40830,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A35"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C9:C10"/>
@@ -40842,22 +40858,6 @@
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A35"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41207,81 +41207,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="368" t="s">
+      <c r="A1" s="378" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="368" t="s">
+      <c r="B1" s="378" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="368" t="s">
+      <c r="C1" s="378" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="367" t="s">
+      <c r="D1" s="377" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="369" t="s">
+      <c r="E1" s="379" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="367" t="s">
+      <c r="F1" s="377" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="367" t="s">
+      <c r="G1" s="377" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="367" t="s">
+      <c r="H1" s="377" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="367" t="s">
+      <c r="I1" s="377" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="367" t="s">
+      <c r="J1" s="377" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="367"/>
-      <c r="L1" s="367"/>
-      <c r="M1" s="367" t="s">
+      <c r="K1" s="377"/>
+      <c r="L1" s="377"/>
+      <c r="M1" s="377" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="367"/>
-      <c r="O1" s="367"/>
-      <c r="P1" s="367"/>
-      <c r="Q1" s="367"/>
-      <c r="R1" s="367"/>
+      <c r="N1" s="377"/>
+      <c r="O1" s="377"/>
+      <c r="P1" s="377"/>
+      <c r="Q1" s="377"/>
+      <c r="R1" s="377"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="368"/>
-      <c r="B2" s="368"/>
-      <c r="C2" s="368"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="367"/>
-      <c r="G2" s="367"/>
-      <c r="H2" s="367"/>
-      <c r="I2" s="367"/>
-      <c r="J2" s="367" t="s">
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="377"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="377"/>
+      <c r="I2" s="377"/>
+      <c r="J2" s="377" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="367"/>
-      <c r="L2" s="367"/>
-      <c r="M2" s="367" t="s">
+      <c r="K2" s="377"/>
+      <c r="L2" s="377"/>
+      <c r="M2" s="377" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="367"/>
-      <c r="O2" s="367"/>
-      <c r="P2" s="367"/>
-      <c r="Q2" s="367"/>
-      <c r="R2" s="367"/>
+      <c r="N2" s="377"/>
+      <c r="O2" s="377"/>
+      <c r="P2" s="377"/>
+      <c r="Q2" s="377"/>
+      <c r="R2" s="377"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="368"/>
-      <c r="B3" s="368"/>
-      <c r="C3" s="368"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="367"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
-      <c r="I3" s="367"/>
+      <c r="A3" s="378"/>
+      <c r="B3" s="378"/>
+      <c r="C3" s="378"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="379"/>
+      <c r="F3" s="377"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="377"/>
+      <c r="I3" s="377"/>
       <c r="J3" s="175">
         <v>4420</v>
       </c>
@@ -41311,35 +41311,35 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="370" t="s">
+      <c r="A4" s="368" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="371"/>
-      <c r="C4" s="371"/>
-      <c r="D4" s="371"/>
-      <c r="E4" s="371"/>
-      <c r="F4" s="371"/>
-      <c r="G4" s="371"/>
-      <c r="H4" s="371"/>
-      <c r="I4" s="371"/>
-      <c r="J4" s="371"/>
-      <c r="K4" s="371"/>
-      <c r="L4" s="371"/>
-      <c r="M4" s="371"/>
-      <c r="N4" s="371"/>
-      <c r="O4" s="371"/>
-      <c r="P4" s="371"/>
-      <c r="Q4" s="371"/>
-      <c r="R4" s="372"/>
+      <c r="B4" s="369"/>
+      <c r="C4" s="369"/>
+      <c r="D4" s="369"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="369"/>
+      <c r="G4" s="369"/>
+      <c r="H4" s="369"/>
+      <c r="I4" s="369"/>
+      <c r="J4" s="369"/>
+      <c r="K4" s="369"/>
+      <c r="L4" s="369"/>
+      <c r="M4" s="369"/>
+      <c r="N4" s="369"/>
+      <c r="O4" s="369"/>
+      <c r="P4" s="369"/>
+      <c r="Q4" s="369"/>
+      <c r="R4" s="370"/>
     </row>
     <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="373" t="s">
+      <c r="A5" s="371" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="374">
+      <c r="B5" s="375">
         <v>44446</v>
       </c>
-      <c r="C5" s="375">
+      <c r="C5" s="376">
         <f>SUM(I5:I15)</f>
         <v>3377.1899999999996</v>
       </c>
@@ -41378,9 +41378,9 @@
       <c r="R5" s="177"/>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="373"/>
-      <c r="B6" s="374"/>
-      <c r="C6" s="375"/>
+      <c r="A6" s="371"/>
+      <c r="B6" s="375"/>
+      <c r="C6" s="376"/>
       <c r="D6" s="177" t="s">
         <v>94</v>
       </c>
@@ -41416,9 +41416,9 @@
       <c r="R6" s="177"/>
     </row>
     <row r="7" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="373"/>
-      <c r="B7" s="374"/>
-      <c r="C7" s="375"/>
+      <c r="A7" s="371"/>
+      <c r="B7" s="375"/>
+      <c r="C7" s="376"/>
       <c r="D7" s="177" t="s">
         <v>103</v>
       </c>
@@ -41454,9 +41454,9 @@
       <c r="R7" s="177"/>
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="373"/>
-      <c r="B8" s="374"/>
-      <c r="C8" s="375"/>
+      <c r="A8" s="371"/>
+      <c r="B8" s="375"/>
+      <c r="C8" s="376"/>
       <c r="D8" s="177" t="s">
         <v>95</v>
       </c>
@@ -41492,9 +41492,9 @@
       <c r="R8" s="177"/>
     </row>
     <row r="9" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="373"/>
-      <c r="B9" s="374"/>
-      <c r="C9" s="375"/>
+      <c r="A9" s="371"/>
+      <c r="B9" s="375"/>
+      <c r="C9" s="376"/>
       <c r="D9" s="177" t="s">
         <v>87</v>
       </c>
@@ -41530,9 +41530,9 @@
       <c r="R9" s="177"/>
     </row>
     <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="373"/>
-      <c r="B10" s="374"/>
-      <c r="C10" s="375"/>
+      <c r="A10" s="371"/>
+      <c r="B10" s="375"/>
+      <c r="C10" s="376"/>
       <c r="D10" s="177" t="s">
         <v>91</v>
       </c>
@@ -41568,9 +41568,9 @@
       <c r="R10" s="177"/>
     </row>
     <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="373"/>
-      <c r="B11" s="374"/>
-      <c r="C11" s="375"/>
+      <c r="A11" s="371"/>
+      <c r="B11" s="375"/>
+      <c r="C11" s="376"/>
       <c r="D11" s="177" t="s">
         <v>90</v>
       </c>
@@ -41606,9 +41606,9 @@
       <c r="R11" s="177"/>
     </row>
     <row r="12" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="373"/>
-      <c r="B12" s="374"/>
-      <c r="C12" s="375"/>
+      <c r="A12" s="371"/>
+      <c r="B12" s="375"/>
+      <c r="C12" s="376"/>
       <c r="D12" s="177" t="s">
         <v>106</v>
       </c>
@@ -41644,9 +41644,9 @@
       <c r="R12" s="177"/>
     </row>
     <row r="13" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="373"/>
-      <c r="B13" s="374"/>
-      <c r="C13" s="375"/>
+      <c r="A13" s="371"/>
+      <c r="B13" s="375"/>
+      <c r="C13" s="376"/>
       <c r="D13" s="177" t="s">
         <v>100</v>
       </c>
@@ -41682,9 +41682,9 @@
       <c r="R13" s="177"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="373"/>
-      <c r="B14" s="374"/>
-      <c r="C14" s="375"/>
+      <c r="A14" s="371"/>
+      <c r="B14" s="375"/>
+      <c r="C14" s="376"/>
       <c r="D14" s="177" t="s">
         <v>181</v>
       </c>
@@ -41716,9 +41716,9 @@
       <c r="R14" s="177"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="373"/>
-      <c r="B15" s="374"/>
-      <c r="C15" s="375"/>
+      <c r="A15" s="371"/>
+      <c r="B15" s="375"/>
+      <c r="C15" s="376"/>
       <c r="D15" s="177" t="s">
         <v>182</v>
       </c>
@@ -41750,13 +41750,13 @@
       <c r="R15" s="177"/>
     </row>
     <row r="16" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="373" t="s">
+      <c r="A16" s="371" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="374">
+      <c r="B16" s="375">
         <v>44446</v>
       </c>
-      <c r="C16" s="375">
+      <c r="C16" s="376">
         <f>SUM(I16:I24)</f>
         <v>2116.5099999999998</v>
       </c>
@@ -41795,9 +41795,9 @@
       <c r="R16" s="177"/>
     </row>
     <row r="17" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="373"/>
-      <c r="B17" s="374"/>
-      <c r="C17" s="375"/>
+      <c r="A17" s="371"/>
+      <c r="B17" s="375"/>
+      <c r="C17" s="376"/>
       <c r="D17" s="177" t="s">
         <v>92</v>
       </c>
@@ -41833,9 +41833,9 @@
       <c r="R17" s="177"/>
     </row>
     <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="373"/>
-      <c r="B18" s="374"/>
-      <c r="C18" s="375"/>
+      <c r="A18" s="371"/>
+      <c r="B18" s="375"/>
+      <c r="C18" s="376"/>
       <c r="D18" s="177" t="s">
         <v>99</v>
       </c>
@@ -41871,9 +41871,9 @@
       <c r="R18" s="177"/>
     </row>
     <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="373"/>
-      <c r="B19" s="374"/>
-      <c r="C19" s="375"/>
+      <c r="A19" s="371"/>
+      <c r="B19" s="375"/>
+      <c r="C19" s="376"/>
       <c r="D19" s="177" t="s">
         <v>86</v>
       </c>
@@ -41909,9 +41909,9 @@
       <c r="R19" s="177"/>
     </row>
     <row r="20" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="373"/>
-      <c r="B20" s="374"/>
-      <c r="C20" s="375"/>
+      <c r="A20" s="371"/>
+      <c r="B20" s="375"/>
+      <c r="C20" s="376"/>
       <c r="D20" s="177" t="s">
         <v>89</v>
       </c>
@@ -41947,9 +41947,9 @@
       <c r="R20" s="177"/>
     </row>
     <row r="21" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="373"/>
-      <c r="B21" s="374"/>
-      <c r="C21" s="375"/>
+      <c r="A21" s="371"/>
+      <c r="B21" s="375"/>
+      <c r="C21" s="376"/>
       <c r="D21" s="177" t="s">
         <v>104</v>
       </c>
@@ -41985,9 +41985,9 @@
       <c r="R21" s="193"/>
     </row>
     <row r="22" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="373"/>
-      <c r="B22" s="374"/>
-      <c r="C22" s="375"/>
+      <c r="A22" s="371"/>
+      <c r="B22" s="375"/>
+      <c r="C22" s="376"/>
       <c r="D22" s="177" t="s">
         <v>100</v>
       </c>
@@ -42023,9 +42023,9 @@
       <c r="R22" s="193"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="373"/>
-      <c r="B23" s="374"/>
-      <c r="C23" s="375"/>
+      <c r="A23" s="371"/>
+      <c r="B23" s="375"/>
+      <c r="C23" s="376"/>
       <c r="D23" s="177" t="s">
         <v>181</v>
       </c>
@@ -42057,9 +42057,9 @@
       <c r="R23" s="193"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="373"/>
-      <c r="B24" s="374"/>
-      <c r="C24" s="375"/>
+      <c r="A24" s="371"/>
+      <c r="B24" s="375"/>
+      <c r="C24" s="376"/>
       <c r="D24" s="177" t="s">
         <v>182</v>
       </c>
@@ -42135,35 +42135,35 @@
       <c r="R25" s="193"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="370" t="s">
+      <c r="A26" s="368" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="371"/>
-      <c r="C26" s="371"/>
-      <c r="D26" s="371"/>
-      <c r="E26" s="371"/>
-      <c r="F26" s="371"/>
-      <c r="G26" s="371"/>
-      <c r="H26" s="371"/>
-      <c r="I26" s="371"/>
-      <c r="J26" s="371"/>
-      <c r="K26" s="371"/>
-      <c r="L26" s="371"/>
-      <c r="M26" s="371"/>
-      <c r="N26" s="371"/>
-      <c r="O26" s="371"/>
-      <c r="P26" s="371"/>
-      <c r="Q26" s="371"/>
-      <c r="R26" s="372"/>
+      <c r="B26" s="369"/>
+      <c r="C26" s="369"/>
+      <c r="D26" s="369"/>
+      <c r="E26" s="369"/>
+      <c r="F26" s="369"/>
+      <c r="G26" s="369"/>
+      <c r="H26" s="369"/>
+      <c r="I26" s="369"/>
+      <c r="J26" s="369"/>
+      <c r="K26" s="369"/>
+      <c r="L26" s="369"/>
+      <c r="M26" s="369"/>
+      <c r="N26" s="369"/>
+      <c r="O26" s="369"/>
+      <c r="P26" s="369"/>
+      <c r="Q26" s="369"/>
+      <c r="R26" s="370"/>
     </row>
     <row r="27" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="373" t="s">
+      <c r="A27" s="371" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="377">
+      <c r="B27" s="372">
         <v>44516</v>
       </c>
-      <c r="C27" s="378">
+      <c r="C27" s="373">
         <f>SUM(I27:I31)</f>
         <v>1929.6600000000003</v>
       </c>
@@ -42202,9 +42202,9 @@
       <c r="R27" s="193"/>
     </row>
     <row r="28" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="373"/>
-      <c r="B28" s="377"/>
-      <c r="C28" s="379"/>
+      <c r="A28" s="371"/>
+      <c r="B28" s="372"/>
+      <c r="C28" s="374"/>
       <c r="D28" s="203" t="s">
         <v>119</v>
       </c>
@@ -42240,9 +42240,9 @@
       <c r="R28" s="193"/>
     </row>
     <row r="29" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="373"/>
-      <c r="B29" s="377"/>
-      <c r="C29" s="379"/>
+      <c r="A29" s="371"/>
+      <c r="B29" s="372"/>
+      <c r="C29" s="374"/>
       <c r="D29" s="203" t="s">
         <v>117</v>
       </c>
@@ -42278,9 +42278,9 @@
       <c r="R29" s="193"/>
     </row>
     <row r="30" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="373"/>
-      <c r="B30" s="377"/>
-      <c r="C30" s="379"/>
+      <c r="A30" s="371"/>
+      <c r="B30" s="372"/>
+      <c r="C30" s="374"/>
       <c r="D30" s="177" t="s">
         <v>111</v>
       </c>
@@ -42316,9 +42316,9 @@
       <c r="R30" s="193"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="373"/>
-      <c r="B31" s="377"/>
-      <c r="C31" s="379"/>
+      <c r="A31" s="371"/>
+      <c r="B31" s="372"/>
+      <c r="C31" s="374"/>
       <c r="D31" s="177" t="s">
         <v>181</v>
       </c>
@@ -42350,13 +42350,13 @@
       <c r="R31" s="193"/>
     </row>
     <row r="32" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="373" t="s">
+      <c r="A32" s="371" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="377">
+      <c r="B32" s="372">
         <v>44516</v>
       </c>
-      <c r="C32" s="378">
+      <c r="C32" s="373">
         <f>SUM(I32:I35)</f>
         <v>1294</v>
       </c>
@@ -42395,9 +42395,9 @@
       <c r="R32" s="193"/>
     </row>
     <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="373"/>
-      <c r="B33" s="377"/>
-      <c r="C33" s="379"/>
+      <c r="A33" s="371"/>
+      <c r="B33" s="372"/>
+      <c r="C33" s="374"/>
       <c r="D33" s="203" t="s">
         <v>114</v>
       </c>
@@ -42433,9 +42433,9 @@
       <c r="R33" s="193"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="373"/>
-      <c r="B34" s="377"/>
-      <c r="C34" s="379"/>
+      <c r="A34" s="371"/>
+      <c r="B34" s="372"/>
+      <c r="C34" s="374"/>
       <c r="D34" s="203" t="s">
         <v>113</v>
       </c>
@@ -42471,9 +42471,9 @@
       <c r="R34" s="193"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="373"/>
-      <c r="B35" s="377"/>
-      <c r="C35" s="379"/>
+      <c r="A35" s="371"/>
+      <c r="B35" s="372"/>
+      <c r="C35" s="374"/>
       <c r="D35" s="177" t="s">
         <v>181</v>
       </c>
@@ -42593,16 +42593,16 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="376" t="s">
+      <c r="A38" s="367" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="376"/>
-      <c r="C38" s="376"/>
-      <c r="D38" s="376"/>
-      <c r="E38" s="376"/>
-      <c r="F38" s="376"/>
-      <c r="G38" s="376"/>
-      <c r="H38" s="376"/>
+      <c r="B38" s="367"/>
+      <c r="C38" s="367"/>
+      <c r="D38" s="367"/>
+      <c r="E38" s="367"/>
+      <c r="F38" s="367"/>
+      <c r="G38" s="367"/>
+      <c r="H38" s="367"/>
       <c r="I38" s="195">
         <f>SUM(I5:I37)</f>
         <v>11723.419999999998</v>
@@ -42646,6 +42646,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A26:R26"/>
     <mergeCell ref="A27:A31"/>
@@ -42654,26 +42674,6 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42701,71 +42701,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="368" t="s">
+      <c r="A1" s="378" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="368" t="s">
+      <c r="B1" s="378" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="368" t="s">
+      <c r="C1" s="378" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="367" t="s">
+      <c r="D1" s="377" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="369" t="s">
+      <c r="E1" s="379" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="367" t="s">
+      <c r="F1" s="377" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="367" t="s">
+      <c r="G1" s="377" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="367" t="s">
+      <c r="H1" s="377" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="367" t="s">
+      <c r="I1" s="377" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="367" t="s">
+      <c r="J1" s="377" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="367"/>
-      <c r="L1" s="367"/>
-      <c r="M1" s="367"/>
-      <c r="N1" s="367"/>
-      <c r="O1" s="367"/>
+      <c r="K1" s="377"/>
+      <c r="L1" s="377"/>
+      <c r="M1" s="377"/>
+      <c r="N1" s="377"/>
+      <c r="O1" s="377"/>
     </row>
     <row r="2" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="368"/>
-      <c r="B2" s="368"/>
-      <c r="C2" s="368"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="367"/>
-      <c r="G2" s="367"/>
-      <c r="H2" s="367"/>
-      <c r="I2" s="367"/>
-      <c r="J2" s="367" t="s">
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="377"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="377"/>
+      <c r="I2" s="377"/>
+      <c r="J2" s="377" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="367"/>
-      <c r="L2" s="367"/>
-      <c r="M2" s="367"/>
-      <c r="N2" s="367"/>
-      <c r="O2" s="367"/>
+      <c r="K2" s="377"/>
+      <c r="L2" s="377"/>
+      <c r="M2" s="377"/>
+      <c r="N2" s="377"/>
+      <c r="O2" s="377"/>
     </row>
     <row r="3" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="368"/>
-      <c r="B3" s="368"/>
-      <c r="C3" s="368"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="367"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
-      <c r="I3" s="367"/>
+      <c r="A3" s="378"/>
+      <c r="B3" s="378"/>
+      <c r="C3" s="378"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="379"/>
+      <c r="F3" s="377"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="377"/>
+      <c r="I3" s="377"/>
       <c r="J3" s="175">
         <v>4428</v>
       </c>
@@ -42786,23 +42786,23 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="370" t="s">
+      <c r="A4" s="368" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="371"/>
-      <c r="C4" s="371"/>
-      <c r="D4" s="371"/>
-      <c r="E4" s="371"/>
-      <c r="F4" s="371"/>
-      <c r="G4" s="371"/>
-      <c r="H4" s="371"/>
-      <c r="I4" s="371"/>
-      <c r="J4" s="371"/>
-      <c r="K4" s="371"/>
-      <c r="L4" s="371"/>
-      <c r="M4" s="371"/>
-      <c r="N4" s="371"/>
-      <c r="O4" s="372"/>
+      <c r="B4" s="369"/>
+      <c r="C4" s="369"/>
+      <c r="D4" s="369"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="369"/>
+      <c r="G4" s="369"/>
+      <c r="H4" s="369"/>
+      <c r="I4" s="369"/>
+      <c r="J4" s="369"/>
+      <c r="K4" s="369"/>
+      <c r="L4" s="369"/>
+      <c r="M4" s="369"/>
+      <c r="N4" s="369"/>
+      <c r="O4" s="370"/>
     </row>
     <row r="5" spans="1:15" s="219" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="194" t="s">
@@ -42842,23 +42842,23 @@
       <c r="O5" s="177"/>
     </row>
     <row r="6" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="370" t="s">
+      <c r="A6" s="368" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="371"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
-      <c r="G6" s="371"/>
-      <c r="H6" s="371"/>
-      <c r="I6" s="371"/>
-      <c r="J6" s="371"/>
-      <c r="K6" s="371"/>
-      <c r="L6" s="371"/>
-      <c r="M6" s="371"/>
-      <c r="N6" s="371"/>
-      <c r="O6" s="372"/>
+      <c r="B6" s="369"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
+      <c r="G6" s="369"/>
+      <c r="H6" s="369"/>
+      <c r="I6" s="369"/>
+      <c r="J6" s="369"/>
+      <c r="K6" s="369"/>
+      <c r="L6" s="369"/>
+      <c r="M6" s="369"/>
+      <c r="N6" s="369"/>
+      <c r="O6" s="370"/>
     </row>
     <row r="7" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="221"/>

--- a/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
+++ b/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIURO\8. URBACT\1. DOKUMENTY BUDŻETOWE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135BE18B-98B1-4D42-9A61-695E967E1A4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F323A0FA-7B35-43D4-835A-8C39088962FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3772,8 +3772,10 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3782,17 +3784,25 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3800,32 +3810,26 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3872,35 +3876,37 @@
     <xf numFmtId="0" fontId="40" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3915,6 +3921,15 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="45" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3923,21 +3938,6 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -32656,7 +32656,7 @@
   </sheetPr>
   <dimension ref="A1:I1024"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
@@ -33374,7 +33374,7 @@
       <c r="I48" s="26"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="329" t="s">
+      <c r="A49" s="324" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -33424,7 +33424,7 @@
       <c r="I50" s="26"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="329" t="s">
+      <c r="A51" s="324" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -33500,7 +33500,7 @@
       <c r="I53" s="26"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="330"/>
+      <c r="A54" s="327"/>
       <c r="B54" s="15" t="s">
         <v>53</v>
       </c>
@@ -33524,7 +33524,7 @@
       <c r="I54" s="26"/>
     </row>
     <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="329" t="s">
+      <c r="A55" s="324" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -33550,7 +33550,7 @@
       <c r="I55" s="26"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="324"/>
+      <c r="A56" s="328"/>
       <c r="B56" s="11" t="s">
         <v>56</v>
       </c>
@@ -33574,7 +33574,7 @@
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="324"/>
+      <c r="A57" s="328"/>
       <c r="B57" s="11" t="s">
         <v>57</v>
       </c>
@@ -33598,7 +33598,7 @@
       <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="324"/>
+      <c r="A58" s="328"/>
       <c r="B58" s="11" t="s">
         <v>58</v>
       </c>
@@ -33622,7 +33622,7 @@
       <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="324"/>
+      <c r="A59" s="328"/>
       <c r="B59" s="11" t="s">
         <v>59</v>
       </c>
@@ -33693,7 +33693,7 @@
       <c r="I61" s="26"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="330"/>
+      <c r="A62" s="327"/>
       <c r="B62" s="15" t="s">
         <v>62</v>
       </c>
@@ -33720,7 +33720,7 @@
       <c r="A63" s="322" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="328"/>
+      <c r="B63" s="323"/>
       <c r="C63" s="56">
         <f>C50+C52+C54+C60+C62</f>
         <v>333598.7928</v>
@@ -33778,7 +33778,7 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="324" t="s">
+      <c r="A68" s="328" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="104" t="s">
@@ -33800,7 +33800,7 @@
       <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="324"/>
+      <c r="A69" s="328"/>
       <c r="B69" s="52">
         <v>401</v>
       </c>
@@ -33817,7 +33817,7 @@
       <c r="H69" s="26"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="324"/>
+      <c r="A70" s="328"/>
       <c r="B70" s="51">
         <v>4018</v>
       </c>
@@ -33845,7 +33845,7 @@
       <c r="I70" s="102"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="324"/>
+      <c r="A71" s="328"/>
       <c r="B71" s="51">
         <v>4019</v>
       </c>
@@ -33877,7 +33877,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="324"/>
+      <c r="A72" s="328"/>
       <c r="B72" s="52">
         <v>411</v>
       </c>
@@ -33902,7 +33902,7 @@
       <c r="I72" s="102"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="324"/>
+      <c r="A73" s="328"/>
       <c r="B73" s="51">
         <v>4118</v>
       </c>
@@ -33936,7 +33936,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="324"/>
+      <c r="A74" s="328"/>
       <c r="B74" s="51">
         <v>4119</v>
       </c>
@@ -33956,7 +33956,7 @@
       <c r="H74" s="26"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="324"/>
+      <c r="A75" s="328"/>
       <c r="B75" s="52">
         <v>412</v>
       </c>
@@ -33977,7 +33977,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="324"/>
+      <c r="A76" s="328"/>
       <c r="B76" s="51">
         <v>4128</v>
       </c>
@@ -33997,7 +33997,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="324"/>
+      <c r="A77" s="328"/>
       <c r="B77" s="51">
         <v>4129</v>
       </c>
@@ -34017,7 +34017,7 @@
       <c r="H77" s="26"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="324"/>
+      <c r="A78" s="328"/>
       <c r="B78" s="82"/>
       <c r="C78" s="83">
         <f>C77+C76+C74+C73+C71+C70</f>
@@ -34103,7 +34103,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="324" t="s">
+      <c r="A83" s="328" t="s">
         <v>48</v>
       </c>
       <c r="B83" s="49">
@@ -34125,7 +34125,7 @@
       <c r="H83" s="26"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="324"/>
+      <c r="A84" s="328"/>
       <c r="B84" s="75"/>
       <c r="C84" s="76">
         <f>C82+C83</f>
@@ -34185,7 +34185,7 @@
       <c r="H86" s="26"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="327"/>
+      <c r="A87" s="330"/>
       <c r="B87" s="50">
         <v>4428</v>
       </c>
@@ -34205,7 +34205,7 @@
       <c r="H87" s="26"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="327"/>
+      <c r="A88" s="330"/>
       <c r="B88" s="50">
         <v>4429</v>
       </c>
@@ -34225,7 +34225,7 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="327"/>
+      <c r="A89" s="330"/>
       <c r="B89" s="79"/>
       <c r="C89" s="93">
         <f>C87+C88</f>
@@ -34263,7 +34263,7 @@
       <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A91" s="324" t="s">
+      <c r="A91" s="328" t="s">
         <v>54</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -34285,7 +34285,7 @@
       <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="324"/>
+      <c r="A92" s="328"/>
       <c r="B92" s="11" t="s">
         <v>66</v>
       </c>
@@ -34305,7 +34305,7 @@
       <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="324"/>
+      <c r="A93" s="328"/>
       <c r="B93" s="11" t="s">
         <v>67</v>
       </c>
@@ -34325,7 +34325,7 @@
       <c r="H93" s="26"/>
     </row>
     <row r="94" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A94" s="324"/>
+      <c r="A94" s="328"/>
       <c r="B94" s="11" t="s">
         <v>68</v>
       </c>
@@ -34345,7 +34345,7 @@
       <c r="H94" s="26"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="324"/>
+      <c r="A95" s="328"/>
       <c r="B95" s="11" t="s">
         <v>69</v>
       </c>
@@ -34365,7 +34365,7 @@
       <c r="H95" s="26"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="324"/>
+      <c r="A96" s="328"/>
       <c r="B96" s="50">
         <v>4178</v>
       </c>
@@ -34384,7 +34384,7 @@
       <c r="H96" s="26"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="324"/>
+      <c r="A97" s="328"/>
       <c r="B97" s="50">
         <v>4179</v>
       </c>
@@ -34403,7 +34403,7 @@
       <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="324"/>
+      <c r="A98" s="328"/>
       <c r="B98" s="50">
         <v>4308</v>
       </c>
@@ -34420,7 +34420,7 @@
       <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="324"/>
+      <c r="A99" s="328"/>
       <c r="B99" s="50">
         <v>4309</v>
       </c>
@@ -34437,7 +34437,7 @@
       <c r="H99" s="26"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="324"/>
+      <c r="A100" s="328"/>
       <c r="B100" s="50">
         <v>4398</v>
       </c>
@@ -34456,7 +34456,7 @@
       <c r="H100" s="26"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="324"/>
+      <c r="A101" s="328"/>
       <c r="B101" s="50">
         <v>4399</v>
       </c>
@@ -34475,7 +34475,7 @@
       <c r="H101" s="26"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="324"/>
+      <c r="A102" s="328"/>
       <c r="B102" s="79"/>
       <c r="C102" s="93">
         <f>SUM(C96:C101)</f>
@@ -34558,7 +34558,7 @@
       <c r="A106" s="322" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="323"/>
+      <c r="B106" s="329"/>
       <c r="C106" s="56">
         <f>C79+C85+C90+C103+C105</f>
         <v>333598.7928</v>
@@ -38248,11 +38248,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A68:A79"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A62"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A6:A8"/>
@@ -38260,18 +38267,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A68:A79"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A103"/>
-    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -38292,7 +38292,7 @@
   <dimension ref="A2:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A21" sqref="A21:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38323,7 +38323,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="328" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="112" t="s">
@@ -38340,7 +38340,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="324"/>
+      <c r="A4" s="328"/>
       <c r="B4" s="52">
         <v>401</v>
       </c>
@@ -38355,7 +38355,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="324"/>
+      <c r="A5" s="328"/>
       <c r="B5" s="51">
         <v>4018</v>
       </c>
@@ -38370,7 +38370,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="324"/>
+      <c r="A6" s="328"/>
       <c r="B6" s="51">
         <v>4019</v>
       </c>
@@ -38385,7 +38385,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="324"/>
+      <c r="A7" s="328"/>
       <c r="B7" s="52">
         <v>411</v>
       </c>
@@ -38400,7 +38400,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="324"/>
+      <c r="A8" s="328"/>
       <c r="B8" s="51">
         <v>4118</v>
       </c>
@@ -38415,7 +38415,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="324"/>
+      <c r="A9" s="328"/>
       <c r="B9" s="51">
         <v>4119</v>
       </c>
@@ -38430,7 +38430,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="324"/>
+      <c r="A10" s="328"/>
       <c r="B10" s="52">
         <v>412</v>
       </c>
@@ -38445,7 +38445,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="324"/>
+      <c r="A11" s="328"/>
       <c r="B11" s="51">
         <v>4128</v>
       </c>
@@ -38460,7 +38460,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="324"/>
+      <c r="A12" s="328"/>
       <c r="B12" s="51">
         <v>4129</v>
       </c>
@@ -38476,7 +38476,7 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="324"/>
+      <c r="A13" s="328"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83">
         <v>104368.534</v>
@@ -38545,7 +38545,7 @@
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="324" t="s">
+      <c r="A18" s="328" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="49">
@@ -38563,7 +38563,7 @@
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="324"/>
+      <c r="A19" s="328"/>
       <c r="B19" s="75"/>
       <c r="C19" s="76">
         <v>3131.0328</v>
@@ -38611,7 +38611,7 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="327"/>
+      <c r="A22" s="330"/>
       <c r="B22" s="50">
         <v>4428</v>
       </c>
@@ -38627,7 +38627,7 @@
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="327"/>
+      <c r="A23" s="330"/>
       <c r="B23" s="50">
         <v>4429</v>
       </c>
@@ -38643,7 +38643,7 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="327"/>
+      <c r="A24" s="330"/>
       <c r="B24" s="79"/>
       <c r="C24" s="93">
         <v>100912</v>
@@ -38673,7 +38673,7 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="324" t="s">
+      <c r="A26" s="328" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -38691,7 +38691,7 @@
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="324"/>
+      <c r="A27" s="328"/>
       <c r="B27" s="11" t="s">
         <v>66</v>
       </c>
@@ -38707,7 +38707,7 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="324"/>
+      <c r="A28" s="328"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -38723,7 +38723,7 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="324"/>
+      <c r="A29" s="328"/>
       <c r="B29" s="11" t="s">
         <v>68</v>
       </c>
@@ -38739,7 +38739,7 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="324"/>
+      <c r="A30" s="328"/>
       <c r="B30" s="11" t="s">
         <v>69</v>
       </c>
@@ -38755,7 +38755,7 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="324"/>
+      <c r="A31" s="328"/>
       <c r="B31" s="50">
         <v>4178</v>
       </c>
@@ -38771,7 +38771,7 @@
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="324"/>
+      <c r="A32" s="328"/>
       <c r="B32" s="50">
         <v>4179</v>
       </c>
@@ -38787,7 +38787,7 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="324"/>
+      <c r="A33" s="328"/>
       <c r="B33" s="50">
         <v>4308</v>
       </c>
@@ -38803,7 +38803,7 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="324"/>
+      <c r="A34" s="328"/>
       <c r="B34" s="50">
         <v>4309</v>
       </c>
@@ -38823,7 +38823,7 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="324"/>
+      <c r="A35" s="328"/>
       <c r="B35" s="50">
         <v>4398</v>
       </c>
@@ -38839,7 +38839,7 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="324"/>
+      <c r="A36" s="328"/>
       <c r="B36" s="50">
         <v>4399</v>
       </c>
@@ -38855,7 +38855,7 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="324"/>
+      <c r="A37" s="328"/>
       <c r="B37" s="79"/>
       <c r="C37" s="93">
         <v>125188</v>
@@ -38922,7 +38922,7 @@
       <c r="A41" s="322" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="323"/>
+      <c r="B41" s="329"/>
       <c r="C41" s="56">
         <v>333598.7928</v>
       </c>
@@ -38953,7 +38953,7 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39044,13 +39044,13 @@
       <c r="V1" s="292"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="345" t="s">
+      <c r="A2" s="347" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="331" t="s">
+      <c r="B2" s="335" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="331" t="s">
+      <c r="C2" s="335" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="168" t="s">
@@ -39088,9 +39088,9 @@
       <c r="S2" s="296"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="346"/>
-      <c r="B3" s="332"/>
-      <c r="C3" s="332"/>
+      <c r="A3" s="348"/>
+      <c r="B3" s="336"/>
+      <c r="C3" s="336"/>
       <c r="D3" s="168" t="s">
         <v>150</v>
       </c>
@@ -39126,11 +39126,11 @@
       <c r="S3" s="296"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="346"/>
-      <c r="B4" s="331" t="s">
+      <c r="A4" s="348"/>
+      <c r="B4" s="335" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="331" t="s">
+      <c r="C4" s="335" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="168" t="s">
@@ -39168,9 +39168,9 @@
       <c r="S4" s="296"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="346"/>
-      <c r="B5" s="332"/>
-      <c r="C5" s="332"/>
+      <c r="A5" s="348"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="336"/>
       <c r="D5" s="168" t="s">
         <v>152</v>
       </c>
@@ -39206,11 +39206,11 @@
       <c r="S5" s="296"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="346"/>
-      <c r="B6" s="331" t="s">
+      <c r="A6" s="348"/>
+      <c r="B6" s="335" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="331" t="s">
+      <c r="C6" s="335" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="168" t="s">
@@ -39248,9 +39248,9 @@
       <c r="S6" s="296"/>
     </row>
     <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="346"/>
-      <c r="B7" s="332"/>
-      <c r="C7" s="332"/>
+      <c r="A7" s="348"/>
+      <c r="B7" s="336"/>
+      <c r="C7" s="336"/>
       <c r="D7" s="168" t="s">
         <v>154</v>
       </c>
@@ -39286,7 +39286,7 @@
       <c r="S7" s="296"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="347"/>
+      <c r="A8" s="349"/>
       <c r="B8" s="133"/>
       <c r="C8" s="136"/>
       <c r="D8" s="145"/>
@@ -39329,13 +39329,13 @@
       <c r="S8" s="298"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="348" t="s">
+      <c r="A9" s="350" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="331" t="s">
+      <c r="B9" s="335" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="335" t="s">
+      <c r="C9" s="361" t="s">
         <v>140</v>
       </c>
       <c r="D9" s="156" t="s">
@@ -39373,9 +39373,9 @@
       <c r="S9" s="296"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="349"/>
-      <c r="B10" s="332"/>
-      <c r="C10" s="336"/>
+      <c r="A10" s="351"/>
+      <c r="B10" s="336"/>
+      <c r="C10" s="362"/>
       <c r="D10" s="173" t="s">
         <v>156</v>
       </c>
@@ -39411,7 +39411,7 @@
       <c r="S10" s="296"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="350"/>
+      <c r="A11" s="352"/>
       <c r="B11" s="134"/>
       <c r="C11" s="135"/>
       <c r="D11" s="130"/>
@@ -39454,13 +39454,13 @@
       <c r="S11" s="300"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="351" t="s">
+      <c r="A12" s="353" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="333" t="s">
+      <c r="B12" s="359" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="337" t="s">
+      <c r="C12" s="363" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="168" t="s">
@@ -39508,9 +39508,9 @@
       <c r="X12" s="290"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="352"/>
-      <c r="B13" s="334"/>
-      <c r="C13" s="338"/>
+      <c r="A13" s="354"/>
+      <c r="B13" s="360"/>
+      <c r="C13" s="364"/>
       <c r="D13" s="168" t="s">
         <v>158</v>
       </c>
@@ -39556,11 +39556,11 @@
       <c r="X13" s="290"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="352"/>
-      <c r="B14" s="340" t="s">
+      <c r="A14" s="354"/>
+      <c r="B14" s="339" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="338"/>
+      <c r="C14" s="364"/>
       <c r="D14" s="168" t="s">
         <v>161</v>
       </c>
@@ -39603,9 +39603,9 @@
       <c r="X14" s="290"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="352"/>
-      <c r="B15" s="341"/>
-      <c r="C15" s="338"/>
+      <c r="A15" s="354"/>
+      <c r="B15" s="366"/>
+      <c r="C15" s="364"/>
       <c r="D15" s="168" t="s">
         <v>162</v>
       </c>
@@ -39648,11 +39648,11 @@
       <c r="X15" s="290"/>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="352"/>
-      <c r="B16" s="342" t="s">
+      <c r="A16" s="354"/>
+      <c r="B16" s="344" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="338"/>
+      <c r="C16" s="364"/>
       <c r="D16" s="168" t="s">
         <v>194</v>
       </c>
@@ -39698,9 +39698,9 @@
       <c r="X16" s="290"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="352"/>
-      <c r="B17" s="342"/>
-      <c r="C17" s="339"/>
+      <c r="A17" s="354"/>
+      <c r="B17" s="344"/>
+      <c r="C17" s="365"/>
       <c r="D17" s="168" t="s">
         <v>195</v>
       </c>
@@ -39746,7 +39746,7 @@
       <c r="X17" s="290"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="353"/>
+      <c r="A18" s="355"/>
       <c r="B18" s="131"/>
       <c r="C18" s="132"/>
       <c r="D18" s="153"/>
@@ -39799,13 +39799,13 @@
       <c r="X18" s="290"/>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="354" t="s">
+      <c r="A19" s="356" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="331" t="s">
+      <c r="B19" s="335" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="361" t="s">
+      <c r="C19" s="337" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="156" t="s">
@@ -39851,9 +39851,9 @@
       <c r="X19" s="290"/>
     </row>
     <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="355"/>
-      <c r="B20" s="332"/>
-      <c r="C20" s="362"/>
+      <c r="A20" s="357"/>
+      <c r="B20" s="336"/>
+      <c r="C20" s="338"/>
       <c r="D20" s="122" t="s">
         <v>160</v>
       </c>
@@ -39897,7 +39897,7 @@
       <c r="X20" s="290"/>
     </row>
     <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="355"/>
+      <c r="A21" s="357"/>
       <c r="B21" s="243"/>
       <c r="C21" s="244"/>
       <c r="D21" s="245" t="s">
@@ -39943,11 +39943,11 @@
       <c r="X21" s="290"/>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="355"/>
-      <c r="B22" s="331" t="s">
+      <c r="A22" s="357"/>
+      <c r="B22" s="335" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="340" t="s">
+      <c r="C22" s="339" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="168" t="s">
@@ -39993,9 +39993,9 @@
       <c r="X22" s="290"/>
     </row>
     <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="355"/>
-      <c r="B23" s="366"/>
-      <c r="C23" s="363"/>
+      <c r="A23" s="357"/>
+      <c r="B23" s="343"/>
+      <c r="C23" s="340"/>
       <c r="D23" s="168" t="s">
         <v>162</v>
       </c>
@@ -40039,9 +40039,9 @@
       <c r="X23" s="290"/>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="355"/>
-      <c r="B24" s="366"/>
-      <c r="C24" s="340" t="s">
+      <c r="A24" s="357"/>
+      <c r="B24" s="343"/>
+      <c r="C24" s="339" t="s">
         <v>139</v>
       </c>
       <c r="D24" s="168" t="s">
@@ -40087,9 +40087,9 @@
       <c r="X24" s="290"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="355"/>
-      <c r="B25" s="366"/>
-      <c r="C25" s="363"/>
+      <c r="A25" s="357"/>
+      <c r="B25" s="343"/>
+      <c r="C25" s="340"/>
       <c r="D25" s="168" t="s">
         <v>162</v>
       </c>
@@ -40133,9 +40133,9 @@
       <c r="X25" s="290"/>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="355"/>
-      <c r="B26" s="366"/>
-      <c r="C26" s="340" t="s">
+      <c r="A26" s="357"/>
+      <c r="B26" s="343"/>
+      <c r="C26" s="339" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="168" t="s">
@@ -40183,9 +40183,9 @@
       <c r="X26" s="290"/>
     </row>
     <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="355"/>
-      <c r="B27" s="366"/>
-      <c r="C27" s="363"/>
+      <c r="A27" s="357"/>
+      <c r="B27" s="343"/>
+      <c r="C27" s="340"/>
       <c r="D27" s="168" t="s">
         <v>162</v>
       </c>
@@ -40231,7 +40231,7 @@
       <c r="X27" s="290"/>
     </row>
     <row r="28" spans="1:24" s="237" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="355"/>
+      <c r="A28" s="357"/>
       <c r="B28" s="249"/>
       <c r="C28" s="244"/>
       <c r="D28" s="239" t="s">
@@ -40289,11 +40289,11 @@
       <c r="X28" s="291"/>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="355"/>
-      <c r="B29" s="342" t="s">
+      <c r="A29" s="357"/>
+      <c r="B29" s="344" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="340" t="s">
+      <c r="C29" s="339" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="168" t="s">
@@ -40340,9 +40340,9 @@
       <c r="X29" s="290"/>
     </row>
     <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="355"/>
-      <c r="B30" s="342"/>
-      <c r="C30" s="363"/>
+      <c r="A30" s="357"/>
+      <c r="B30" s="344"/>
+      <c r="C30" s="340"/>
       <c r="D30" s="168" t="s">
         <v>210</v>
       </c>
@@ -40387,7 +40387,7 @@
       <c r="X30" s="290"/>
     </row>
     <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="355"/>
+      <c r="A31" s="357"/>
       <c r="B31" s="250"/>
       <c r="C31" s="251"/>
       <c r="D31" s="252" t="s">
@@ -40424,11 +40424,11 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="355"/>
-      <c r="B32" s="359" t="s">
+      <c r="A32" s="357"/>
+      <c r="B32" s="333" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="364" t="s">
+      <c r="C32" s="341" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="122" t="s">
@@ -40472,9 +40472,9 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="355"/>
-      <c r="B33" s="360"/>
-      <c r="C33" s="365"/>
+      <c r="A33" s="357"/>
+      <c r="B33" s="334"/>
+      <c r="C33" s="342"/>
       <c r="D33" s="126" t="s">
         <v>164</v>
       </c>
@@ -40516,7 +40516,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="355"/>
+      <c r="A34" s="357"/>
       <c r="B34" s="256"/>
       <c r="C34" s="257"/>
       <c r="D34" s="258" t="s">
@@ -40566,7 +40566,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="356"/>
+      <c r="A35" s="358"/>
       <c r="B35" s="137"/>
       <c r="C35" s="138"/>
       <c r="D35" s="159"/>
@@ -40614,7 +40614,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="343" t="s">
+      <c r="A36" s="345" t="s">
         <v>137</v>
       </c>
       <c r="B36" s="116" t="s">
@@ -40660,7 +40660,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="344"/>
+      <c r="A37" s="346"/>
       <c r="B37" s="162"/>
       <c r="C37" s="163"/>
       <c r="D37" s="228"/>
@@ -40701,11 +40701,11 @@
     </row>
     <row r="38" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="129"/>
-      <c r="B38" s="357" t="s">
+      <c r="B38" s="331" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="357"/>
-      <c r="D38" s="358"/>
+      <c r="C38" s="331"/>
+      <c r="D38" s="332"/>
       <c r="E38" s="148">
         <v>333598.7928</v>
       </c>
@@ -40830,22 +40830,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A35"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C9:C10"/>
@@ -40858,6 +40842,22 @@
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A35"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41207,81 +41207,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="378" t="s">
+      <c r="A1" s="368" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="378" t="s">
+      <c r="B1" s="368" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="378" t="s">
+      <c r="C1" s="368" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="377" t="s">
+      <c r="D1" s="367" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="379" t="s">
+      <c r="E1" s="369" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="377" t="s">
+      <c r="F1" s="367" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="377" t="s">
+      <c r="G1" s="367" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="377" t="s">
+      <c r="H1" s="367" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="377" t="s">
+      <c r="I1" s="367" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="377" t="s">
+      <c r="J1" s="367" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="377"/>
-      <c r="L1" s="377"/>
-      <c r="M1" s="377" t="s">
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="377"/>
-      <c r="O1" s="377"/>
-      <c r="P1" s="377"/>
-      <c r="Q1" s="377"/>
-      <c r="R1" s="377"/>
+      <c r="N1" s="367"/>
+      <c r="O1" s="367"/>
+      <c r="P1" s="367"/>
+      <c r="Q1" s="367"/>
+      <c r="R1" s="367"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="378"/>
-      <c r="B2" s="378"/>
-      <c r="C2" s="378"/>
-      <c r="D2" s="377"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="377"/>
-      <c r="G2" s="377"/>
-      <c r="H2" s="377"/>
-      <c r="I2" s="377"/>
-      <c r="J2" s="377" t="s">
+      <c r="A2" s="368"/>
+      <c r="B2" s="368"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="367"/>
+      <c r="J2" s="367" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="377"/>
-      <c r="L2" s="377"/>
-      <c r="M2" s="377" t="s">
+      <c r="K2" s="367"/>
+      <c r="L2" s="367"/>
+      <c r="M2" s="367" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="377"/>
-      <c r="O2" s="377"/>
-      <c r="P2" s="377"/>
-      <c r="Q2" s="377"/>
-      <c r="R2" s="377"/>
+      <c r="N2" s="367"/>
+      <c r="O2" s="367"/>
+      <c r="P2" s="367"/>
+      <c r="Q2" s="367"/>
+      <c r="R2" s="367"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="378"/>
-      <c r="B3" s="378"/>
-      <c r="C3" s="378"/>
-      <c r="D3" s="377"/>
-      <c r="E3" s="379"/>
-      <c r="F3" s="377"/>
-      <c r="G3" s="377"/>
-      <c r="H3" s="377"/>
-      <c r="I3" s="377"/>
+      <c r="A3" s="368"/>
+      <c r="B3" s="368"/>
+      <c r="C3" s="368"/>
+      <c r="D3" s="367"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="367"/>
+      <c r="G3" s="367"/>
+      <c r="H3" s="367"/>
+      <c r="I3" s="367"/>
       <c r="J3" s="175">
         <v>4420</v>
       </c>
@@ -41311,35 +41311,35 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="368" t="s">
+      <c r="A4" s="370" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="369"/>
-      <c r="C4" s="369"/>
-      <c r="D4" s="369"/>
-      <c r="E4" s="369"/>
-      <c r="F4" s="369"/>
-      <c r="G4" s="369"/>
-      <c r="H4" s="369"/>
-      <c r="I4" s="369"/>
-      <c r="J4" s="369"/>
-      <c r="K4" s="369"/>
-      <c r="L4" s="369"/>
-      <c r="M4" s="369"/>
-      <c r="N4" s="369"/>
-      <c r="O4" s="369"/>
-      <c r="P4" s="369"/>
-      <c r="Q4" s="369"/>
-      <c r="R4" s="370"/>
+      <c r="B4" s="371"/>
+      <c r="C4" s="371"/>
+      <c r="D4" s="371"/>
+      <c r="E4" s="371"/>
+      <c r="F4" s="371"/>
+      <c r="G4" s="371"/>
+      <c r="H4" s="371"/>
+      <c r="I4" s="371"/>
+      <c r="J4" s="371"/>
+      <c r="K4" s="371"/>
+      <c r="L4" s="371"/>
+      <c r="M4" s="371"/>
+      <c r="N4" s="371"/>
+      <c r="O4" s="371"/>
+      <c r="P4" s="371"/>
+      <c r="Q4" s="371"/>
+      <c r="R4" s="372"/>
     </row>
     <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="371" t="s">
+      <c r="A5" s="373" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="375">
+      <c r="B5" s="374">
         <v>44446</v>
       </c>
-      <c r="C5" s="376">
+      <c r="C5" s="375">
         <f>SUM(I5:I15)</f>
         <v>3377.1899999999996</v>
       </c>
@@ -41378,9 +41378,9 @@
       <c r="R5" s="177"/>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="371"/>
-      <c r="B6" s="375"/>
-      <c r="C6" s="376"/>
+      <c r="A6" s="373"/>
+      <c r="B6" s="374"/>
+      <c r="C6" s="375"/>
       <c r="D6" s="177" t="s">
         <v>94</v>
       </c>
@@ -41416,9 +41416,9 @@
       <c r="R6" s="177"/>
     </row>
     <row r="7" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="371"/>
-      <c r="B7" s="375"/>
-      <c r="C7" s="376"/>
+      <c r="A7" s="373"/>
+      <c r="B7" s="374"/>
+      <c r="C7" s="375"/>
       <c r="D7" s="177" t="s">
         <v>103</v>
       </c>
@@ -41454,9 +41454,9 @@
       <c r="R7" s="177"/>
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="371"/>
-      <c r="B8" s="375"/>
-      <c r="C8" s="376"/>
+      <c r="A8" s="373"/>
+      <c r="B8" s="374"/>
+      <c r="C8" s="375"/>
       <c r="D8" s="177" t="s">
         <v>95</v>
       </c>
@@ -41492,9 +41492,9 @@
       <c r="R8" s="177"/>
     </row>
     <row r="9" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="371"/>
-      <c r="B9" s="375"/>
-      <c r="C9" s="376"/>
+      <c r="A9" s="373"/>
+      <c r="B9" s="374"/>
+      <c r="C9" s="375"/>
       <c r="D9" s="177" t="s">
         <v>87</v>
       </c>
@@ -41530,9 +41530,9 @@
       <c r="R9" s="177"/>
     </row>
     <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="371"/>
-      <c r="B10" s="375"/>
-      <c r="C10" s="376"/>
+      <c r="A10" s="373"/>
+      <c r="B10" s="374"/>
+      <c r="C10" s="375"/>
       <c r="D10" s="177" t="s">
         <v>91</v>
       </c>
@@ -41568,9 +41568,9 @@
       <c r="R10" s="177"/>
     </row>
     <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="371"/>
-      <c r="B11" s="375"/>
-      <c r="C11" s="376"/>
+      <c r="A11" s="373"/>
+      <c r="B11" s="374"/>
+      <c r="C11" s="375"/>
       <c r="D11" s="177" t="s">
         <v>90</v>
       </c>
@@ -41606,9 +41606,9 @@
       <c r="R11" s="177"/>
     </row>
     <row r="12" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="371"/>
-      <c r="B12" s="375"/>
-      <c r="C12" s="376"/>
+      <c r="A12" s="373"/>
+      <c r="B12" s="374"/>
+      <c r="C12" s="375"/>
       <c r="D12" s="177" t="s">
         <v>106</v>
       </c>
@@ -41644,9 +41644,9 @@
       <c r="R12" s="177"/>
     </row>
     <row r="13" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="371"/>
-      <c r="B13" s="375"/>
-      <c r="C13" s="376"/>
+      <c r="A13" s="373"/>
+      <c r="B13" s="374"/>
+      <c r="C13" s="375"/>
       <c r="D13" s="177" t="s">
         <v>100</v>
       </c>
@@ -41682,9 +41682,9 @@
       <c r="R13" s="177"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="371"/>
-      <c r="B14" s="375"/>
-      <c r="C14" s="376"/>
+      <c r="A14" s="373"/>
+      <c r="B14" s="374"/>
+      <c r="C14" s="375"/>
       <c r="D14" s="177" t="s">
         <v>181</v>
       </c>
@@ -41716,9 +41716,9 @@
       <c r="R14" s="177"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="371"/>
-      <c r="B15" s="375"/>
-      <c r="C15" s="376"/>
+      <c r="A15" s="373"/>
+      <c r="B15" s="374"/>
+      <c r="C15" s="375"/>
       <c r="D15" s="177" t="s">
         <v>182</v>
       </c>
@@ -41750,13 +41750,13 @@
       <c r="R15" s="177"/>
     </row>
     <row r="16" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="371" t="s">
+      <c r="A16" s="373" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="375">
+      <c r="B16" s="374">
         <v>44446</v>
       </c>
-      <c r="C16" s="376">
+      <c r="C16" s="375">
         <f>SUM(I16:I24)</f>
         <v>2116.5099999999998</v>
       </c>
@@ -41795,9 +41795,9 @@
       <c r="R16" s="177"/>
     </row>
     <row r="17" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="371"/>
-      <c r="B17" s="375"/>
-      <c r="C17" s="376"/>
+      <c r="A17" s="373"/>
+      <c r="B17" s="374"/>
+      <c r="C17" s="375"/>
       <c r="D17" s="177" t="s">
         <v>92</v>
       </c>
@@ -41833,9 +41833,9 @@
       <c r="R17" s="177"/>
     </row>
     <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="371"/>
-      <c r="B18" s="375"/>
-      <c r="C18" s="376"/>
+      <c r="A18" s="373"/>
+      <c r="B18" s="374"/>
+      <c r="C18" s="375"/>
       <c r="D18" s="177" t="s">
         <v>99</v>
       </c>
@@ -41871,9 +41871,9 @@
       <c r="R18" s="177"/>
     </row>
     <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="371"/>
-      <c r="B19" s="375"/>
-      <c r="C19" s="376"/>
+      <c r="A19" s="373"/>
+      <c r="B19" s="374"/>
+      <c r="C19" s="375"/>
       <c r="D19" s="177" t="s">
         <v>86</v>
       </c>
@@ -41909,9 +41909,9 @@
       <c r="R19" s="177"/>
     </row>
     <row r="20" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="371"/>
-      <c r="B20" s="375"/>
-      <c r="C20" s="376"/>
+      <c r="A20" s="373"/>
+      <c r="B20" s="374"/>
+      <c r="C20" s="375"/>
       <c r="D20" s="177" t="s">
         <v>89</v>
       </c>
@@ -41947,9 +41947,9 @@
       <c r="R20" s="177"/>
     </row>
     <row r="21" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="371"/>
-      <c r="B21" s="375"/>
-      <c r="C21" s="376"/>
+      <c r="A21" s="373"/>
+      <c r="B21" s="374"/>
+      <c r="C21" s="375"/>
       <c r="D21" s="177" t="s">
         <v>104</v>
       </c>
@@ -41985,9 +41985,9 @@
       <c r="R21" s="193"/>
     </row>
     <row r="22" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="371"/>
-      <c r="B22" s="375"/>
-      <c r="C22" s="376"/>
+      <c r="A22" s="373"/>
+      <c r="B22" s="374"/>
+      <c r="C22" s="375"/>
       <c r="D22" s="177" t="s">
         <v>100</v>
       </c>
@@ -42023,9 +42023,9 @@
       <c r="R22" s="193"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="371"/>
-      <c r="B23" s="375"/>
-      <c r="C23" s="376"/>
+      <c r="A23" s="373"/>
+      <c r="B23" s="374"/>
+      <c r="C23" s="375"/>
       <c r="D23" s="177" t="s">
         <v>181</v>
       </c>
@@ -42057,9 +42057,9 @@
       <c r="R23" s="193"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="371"/>
-      <c r="B24" s="375"/>
-      <c r="C24" s="376"/>
+      <c r="A24" s="373"/>
+      <c r="B24" s="374"/>
+      <c r="C24" s="375"/>
       <c r="D24" s="177" t="s">
         <v>182</v>
       </c>
@@ -42135,35 +42135,35 @@
       <c r="R25" s="193"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="368" t="s">
+      <c r="A26" s="370" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="369"/>
-      <c r="C26" s="369"/>
-      <c r="D26" s="369"/>
-      <c r="E26" s="369"/>
-      <c r="F26" s="369"/>
-      <c r="G26" s="369"/>
-      <c r="H26" s="369"/>
-      <c r="I26" s="369"/>
-      <c r="J26" s="369"/>
-      <c r="K26" s="369"/>
-      <c r="L26" s="369"/>
-      <c r="M26" s="369"/>
-      <c r="N26" s="369"/>
-      <c r="O26" s="369"/>
-      <c r="P26" s="369"/>
-      <c r="Q26" s="369"/>
-      <c r="R26" s="370"/>
+      <c r="B26" s="371"/>
+      <c r="C26" s="371"/>
+      <c r="D26" s="371"/>
+      <c r="E26" s="371"/>
+      <c r="F26" s="371"/>
+      <c r="G26" s="371"/>
+      <c r="H26" s="371"/>
+      <c r="I26" s="371"/>
+      <c r="J26" s="371"/>
+      <c r="K26" s="371"/>
+      <c r="L26" s="371"/>
+      <c r="M26" s="371"/>
+      <c r="N26" s="371"/>
+      <c r="O26" s="371"/>
+      <c r="P26" s="371"/>
+      <c r="Q26" s="371"/>
+      <c r="R26" s="372"/>
     </row>
     <row r="27" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="371" t="s">
+      <c r="A27" s="373" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="372">
+      <c r="B27" s="377">
         <v>44516</v>
       </c>
-      <c r="C27" s="373">
+      <c r="C27" s="378">
         <f>SUM(I27:I31)</f>
         <v>1929.6600000000003</v>
       </c>
@@ -42202,9 +42202,9 @@
       <c r="R27" s="193"/>
     </row>
     <row r="28" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="371"/>
-      <c r="B28" s="372"/>
-      <c r="C28" s="374"/>
+      <c r="A28" s="373"/>
+      <c r="B28" s="377"/>
+      <c r="C28" s="379"/>
       <c r="D28" s="203" t="s">
         <v>119</v>
       </c>
@@ -42240,9 +42240,9 @@
       <c r="R28" s="193"/>
     </row>
     <row r="29" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="371"/>
-      <c r="B29" s="372"/>
-      <c r="C29" s="374"/>
+      <c r="A29" s="373"/>
+      <c r="B29" s="377"/>
+      <c r="C29" s="379"/>
       <c r="D29" s="203" t="s">
         <v>117</v>
       </c>
@@ -42278,9 +42278,9 @@
       <c r="R29" s="193"/>
     </row>
     <row r="30" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="371"/>
-      <c r="B30" s="372"/>
-      <c r="C30" s="374"/>
+      <c r="A30" s="373"/>
+      <c r="B30" s="377"/>
+      <c r="C30" s="379"/>
       <c r="D30" s="177" t="s">
         <v>111</v>
       </c>
@@ -42316,9 +42316,9 @@
       <c r="R30" s="193"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="371"/>
-      <c r="B31" s="372"/>
-      <c r="C31" s="374"/>
+      <c r="A31" s="373"/>
+      <c r="B31" s="377"/>
+      <c r="C31" s="379"/>
       <c r="D31" s="177" t="s">
         <v>181</v>
       </c>
@@ -42350,13 +42350,13 @@
       <c r="R31" s="193"/>
     </row>
     <row r="32" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="371" t="s">
+      <c r="A32" s="373" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="372">
+      <c r="B32" s="377">
         <v>44516</v>
       </c>
-      <c r="C32" s="373">
+      <c r="C32" s="378">
         <f>SUM(I32:I35)</f>
         <v>1294</v>
       </c>
@@ -42395,9 +42395,9 @@
       <c r="R32" s="193"/>
     </row>
     <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="371"/>
-      <c r="B33" s="372"/>
-      <c r="C33" s="374"/>
+      <c r="A33" s="373"/>
+      <c r="B33" s="377"/>
+      <c r="C33" s="379"/>
       <c r="D33" s="203" t="s">
         <v>114</v>
       </c>
@@ -42433,9 +42433,9 @@
       <c r="R33" s="193"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="371"/>
-      <c r="B34" s="372"/>
-      <c r="C34" s="374"/>
+      <c r="A34" s="373"/>
+      <c r="B34" s="377"/>
+      <c r="C34" s="379"/>
       <c r="D34" s="203" t="s">
         <v>113</v>
       </c>
@@ -42471,9 +42471,9 @@
       <c r="R34" s="193"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="371"/>
-      <c r="B35" s="372"/>
-      <c r="C35" s="374"/>
+      <c r="A35" s="373"/>
+      <c r="B35" s="377"/>
+      <c r="C35" s="379"/>
       <c r="D35" s="177" t="s">
         <v>181</v>
       </c>
@@ -42593,16 +42593,16 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="367" t="s">
+      <c r="A38" s="376" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="367"/>
-      <c r="C38" s="367"/>
-      <c r="D38" s="367"/>
-      <c r="E38" s="367"/>
-      <c r="F38" s="367"/>
-      <c r="G38" s="367"/>
-      <c r="H38" s="367"/>
+      <c r="B38" s="376"/>
+      <c r="C38" s="376"/>
+      <c r="D38" s="376"/>
+      <c r="E38" s="376"/>
+      <c r="F38" s="376"/>
+      <c r="G38" s="376"/>
+      <c r="H38" s="376"/>
       <c r="I38" s="195">
         <f>SUM(I5:I37)</f>
         <v>11723.419999999998</v>
@@ -42646,26 +42646,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A26:R26"/>
     <mergeCell ref="A27:A31"/>
@@ -42674,6 +42654,26 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42701,71 +42701,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="378" t="s">
+      <c r="A1" s="368" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="378" t="s">
+      <c r="B1" s="368" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="378" t="s">
+      <c r="C1" s="368" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="377" t="s">
+      <c r="D1" s="367" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="379" t="s">
+      <c r="E1" s="369" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="377" t="s">
+      <c r="F1" s="367" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="377" t="s">
+      <c r="G1" s="367" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="377" t="s">
+      <c r="H1" s="367" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="377" t="s">
+      <c r="I1" s="367" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="377" t="s">
+      <c r="J1" s="367" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="377"/>
-      <c r="L1" s="377"/>
-      <c r="M1" s="377"/>
-      <c r="N1" s="377"/>
-      <c r="O1" s="377"/>
+      <c r="K1" s="367"/>
+      <c r="L1" s="367"/>
+      <c r="M1" s="367"/>
+      <c r="N1" s="367"/>
+      <c r="O1" s="367"/>
     </row>
     <row r="2" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="378"/>
-      <c r="B2" s="378"/>
-      <c r="C2" s="378"/>
-      <c r="D2" s="377"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="377"/>
-      <c r="G2" s="377"/>
-      <c r="H2" s="377"/>
-      <c r="I2" s="377"/>
-      <c r="J2" s="377" t="s">
+      <c r="A2" s="368"/>
+      <c r="B2" s="368"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="367"/>
+      <c r="J2" s="367" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="377"/>
-      <c r="L2" s="377"/>
-      <c r="M2" s="377"/>
-      <c r="N2" s="377"/>
-      <c r="O2" s="377"/>
+      <c r="K2" s="367"/>
+      <c r="L2" s="367"/>
+      <c r="M2" s="367"/>
+      <c r="N2" s="367"/>
+      <c r="O2" s="367"/>
     </row>
     <row r="3" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="378"/>
-      <c r="B3" s="378"/>
-      <c r="C3" s="378"/>
-      <c r="D3" s="377"/>
-      <c r="E3" s="379"/>
-      <c r="F3" s="377"/>
-      <c r="G3" s="377"/>
-      <c r="H3" s="377"/>
-      <c r="I3" s="377"/>
+      <c r="A3" s="368"/>
+      <c r="B3" s="368"/>
+      <c r="C3" s="368"/>
+      <c r="D3" s="367"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="367"/>
+      <c r="G3" s="367"/>
+      <c r="H3" s="367"/>
+      <c r="I3" s="367"/>
       <c r="J3" s="175">
         <v>4428</v>
       </c>
@@ -42786,23 +42786,23 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="368" t="s">
+      <c r="A4" s="370" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="369"/>
-      <c r="C4" s="369"/>
-      <c r="D4" s="369"/>
-      <c r="E4" s="369"/>
-      <c r="F4" s="369"/>
-      <c r="G4" s="369"/>
-      <c r="H4" s="369"/>
-      <c r="I4" s="369"/>
-      <c r="J4" s="369"/>
-      <c r="K4" s="369"/>
-      <c r="L4" s="369"/>
-      <c r="M4" s="369"/>
-      <c r="N4" s="369"/>
-      <c r="O4" s="370"/>
+      <c r="B4" s="371"/>
+      <c r="C4" s="371"/>
+      <c r="D4" s="371"/>
+      <c r="E4" s="371"/>
+      <c r="F4" s="371"/>
+      <c r="G4" s="371"/>
+      <c r="H4" s="371"/>
+      <c r="I4" s="371"/>
+      <c r="J4" s="371"/>
+      <c r="K4" s="371"/>
+      <c r="L4" s="371"/>
+      <c r="M4" s="371"/>
+      <c r="N4" s="371"/>
+      <c r="O4" s="372"/>
     </row>
     <row r="5" spans="1:15" s="219" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="194" t="s">
@@ -42842,23 +42842,23 @@
       <c r="O5" s="177"/>
     </row>
     <row r="6" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="368" t="s">
+      <c r="A6" s="370" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="369"/>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
-      <c r="G6" s="369"/>
-      <c r="H6" s="369"/>
-      <c r="I6" s="369"/>
-      <c r="J6" s="369"/>
-      <c r="K6" s="369"/>
-      <c r="L6" s="369"/>
-      <c r="M6" s="369"/>
-      <c r="N6" s="369"/>
-      <c r="O6" s="370"/>
+      <c r="B6" s="371"/>
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
+      <c r="G6" s="371"/>
+      <c r="H6" s="371"/>
+      <c r="I6" s="371"/>
+      <c r="J6" s="371"/>
+      <c r="K6" s="371"/>
+      <c r="L6" s="371"/>
+      <c r="M6" s="371"/>
+      <c r="N6" s="371"/>
+      <c r="O6" s="372"/>
     </row>
     <row r="7" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="221"/>

--- a/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
+++ b/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIURO\8. URBACT\1. DOKUMENTY BUDŻETOWE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F323A0FA-7B35-43D4-835A-8C39088962FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3A4F6E-E056-4E69-A177-8546D7892109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOTAL BUDGET" sheetId="1" r:id="rId1"/>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="242">
   <si>
     <r>
       <rPr>
@@ -2904,7 +2904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="383">
+  <cellXfs count="384">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3772,10 +3772,8 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3784,25 +3782,17 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3810,26 +3800,32 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3876,37 +3872,35 @@
     <xf numFmtId="0" fontId="40" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3921,15 +3915,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="45" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3939,6 +3924,21 @@
     <xf numFmtId="0" fontId="46" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3946,6 +3946,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -33374,7 +33377,7 @@
       <c r="I48" s="26"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="324" t="s">
+      <c r="A49" s="329" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -33424,7 +33427,7 @@
       <c r="I50" s="26"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="324" t="s">
+      <c r="A51" s="329" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -33500,7 +33503,7 @@
       <c r="I53" s="26"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="327"/>
+      <c r="A54" s="330"/>
       <c r="B54" s="15" t="s">
         <v>53</v>
       </c>
@@ -33524,7 +33527,7 @@
       <c r="I54" s="26"/>
     </row>
     <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="324" t="s">
+      <c r="A55" s="329" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -33550,7 +33553,7 @@
       <c r="I55" s="26"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="328"/>
+      <c r="A56" s="324"/>
       <c r="B56" s="11" t="s">
         <v>56</v>
       </c>
@@ -33574,7 +33577,7 @@
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="328"/>
+      <c r="A57" s="324"/>
       <c r="B57" s="11" t="s">
         <v>57</v>
       </c>
@@ -33598,7 +33601,7 @@
       <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="328"/>
+      <c r="A58" s="324"/>
       <c r="B58" s="11" t="s">
         <v>58</v>
       </c>
@@ -33622,7 +33625,7 @@
       <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="328"/>
+      <c r="A59" s="324"/>
       <c r="B59" s="11" t="s">
         <v>59</v>
       </c>
@@ -33693,7 +33696,7 @@
       <c r="I61" s="26"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="327"/>
+      <c r="A62" s="330"/>
       <c r="B62" s="15" t="s">
         <v>62</v>
       </c>
@@ -33720,7 +33723,7 @@
       <c r="A63" s="322" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="323"/>
+      <c r="B63" s="328"/>
       <c r="C63" s="56">
         <f>C50+C52+C54+C60+C62</f>
         <v>333598.7928</v>
@@ -33778,7 +33781,7 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="328" t="s">
+      <c r="A68" s="324" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="104" t="s">
@@ -33800,7 +33803,7 @@
       <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="328"/>
+      <c r="A69" s="324"/>
       <c r="B69" s="52">
         <v>401</v>
       </c>
@@ -33817,7 +33820,7 @@
       <c r="H69" s="26"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="328"/>
+      <c r="A70" s="324"/>
       <c r="B70" s="51">
         <v>4018</v>
       </c>
@@ -33845,7 +33848,7 @@
       <c r="I70" s="102"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="328"/>
+      <c r="A71" s="324"/>
       <c r="B71" s="51">
         <v>4019</v>
       </c>
@@ -33877,7 +33880,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="328"/>
+      <c r="A72" s="324"/>
       <c r="B72" s="52">
         <v>411</v>
       </c>
@@ -33902,7 +33905,7 @@
       <c r="I72" s="102"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="328"/>
+      <c r="A73" s="324"/>
       <c r="B73" s="51">
         <v>4118</v>
       </c>
@@ -33936,7 +33939,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="328"/>
+      <c r="A74" s="324"/>
       <c r="B74" s="51">
         <v>4119</v>
       </c>
@@ -33956,7 +33959,7 @@
       <c r="H74" s="26"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="328"/>
+      <c r="A75" s="324"/>
       <c r="B75" s="52">
         <v>412</v>
       </c>
@@ -33977,7 +33980,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="328"/>
+      <c r="A76" s="324"/>
       <c r="B76" s="51">
         <v>4128</v>
       </c>
@@ -33997,7 +34000,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="328"/>
+      <c r="A77" s="324"/>
       <c r="B77" s="51">
         <v>4129</v>
       </c>
@@ -34017,7 +34020,7 @@
       <c r="H77" s="26"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="328"/>
+      <c r="A78" s="324"/>
       <c r="B78" s="82"/>
       <c r="C78" s="83">
         <f>C77+C76+C74+C73+C71+C70</f>
@@ -34103,7 +34106,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="328" t="s">
+      <c r="A83" s="324" t="s">
         <v>48</v>
       </c>
       <c r="B83" s="49">
@@ -34125,7 +34128,7 @@
       <c r="H83" s="26"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="328"/>
+      <c r="A84" s="324"/>
       <c r="B84" s="75"/>
       <c r="C84" s="76">
         <f>C82+C83</f>
@@ -34185,7 +34188,7 @@
       <c r="H86" s="26"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="330"/>
+      <c r="A87" s="327"/>
       <c r="B87" s="50">
         <v>4428</v>
       </c>
@@ -34205,7 +34208,7 @@
       <c r="H87" s="26"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="330"/>
+      <c r="A88" s="327"/>
       <c r="B88" s="50">
         <v>4429</v>
       </c>
@@ -34225,7 +34228,7 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="330"/>
+      <c r="A89" s="327"/>
       <c r="B89" s="79"/>
       <c r="C89" s="93">
         <f>C87+C88</f>
@@ -34263,7 +34266,7 @@
       <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A91" s="328" t="s">
+      <c r="A91" s="324" t="s">
         <v>54</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -34285,7 +34288,7 @@
       <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="328"/>
+      <c r="A92" s="324"/>
       <c r="B92" s="11" t="s">
         <v>66</v>
       </c>
@@ -34305,7 +34308,7 @@
       <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="328"/>
+      <c r="A93" s="324"/>
       <c r="B93" s="11" t="s">
         <v>67</v>
       </c>
@@ -34325,7 +34328,7 @@
       <c r="H93" s="26"/>
     </row>
     <row r="94" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A94" s="328"/>
+      <c r="A94" s="324"/>
       <c r="B94" s="11" t="s">
         <v>68</v>
       </c>
@@ -34345,7 +34348,7 @@
       <c r="H94" s="26"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="328"/>
+      <c r="A95" s="324"/>
       <c r="B95" s="11" t="s">
         <v>69</v>
       </c>
@@ -34365,7 +34368,7 @@
       <c r="H95" s="26"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="328"/>
+      <c r="A96" s="324"/>
       <c r="B96" s="50">
         <v>4178</v>
       </c>
@@ -34384,7 +34387,7 @@
       <c r="H96" s="26"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="328"/>
+      <c r="A97" s="324"/>
       <c r="B97" s="50">
         <v>4179</v>
       </c>
@@ -34403,7 +34406,7 @@
       <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="328"/>
+      <c r="A98" s="324"/>
       <c r="B98" s="50">
         <v>4308</v>
       </c>
@@ -34420,7 +34423,7 @@
       <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="328"/>
+      <c r="A99" s="324"/>
       <c r="B99" s="50">
         <v>4309</v>
       </c>
@@ -34437,7 +34440,7 @@
       <c r="H99" s="26"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="328"/>
+      <c r="A100" s="324"/>
       <c r="B100" s="50">
         <v>4398</v>
       </c>
@@ -34456,7 +34459,7 @@
       <c r="H100" s="26"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="328"/>
+      <c r="A101" s="324"/>
       <c r="B101" s="50">
         <v>4399</v>
       </c>
@@ -34475,7 +34478,7 @@
       <c r="H101" s="26"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="328"/>
+      <c r="A102" s="324"/>
       <c r="B102" s="79"/>
       <c r="C102" s="93">
         <f>SUM(C96:C101)</f>
@@ -34558,7 +34561,7 @@
       <c r="A106" s="322" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="329"/>
+      <c r="B106" s="323"/>
       <c r="C106" s="56">
         <f>C79+C85+C90+C103+C105</f>
         <v>333598.7928</v>
@@ -38248,18 +38251,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A68:A79"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A6:A8"/>
@@ -38267,11 +38263,18 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A68:A79"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="A104:A105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -38291,7 +38294,7 @@
   </sheetPr>
   <dimension ref="A2:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:A25"/>
     </sheetView>
   </sheetViews>
@@ -38323,7 +38326,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="328" t="s">
+      <c r="A3" s="324" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="112" t="s">
@@ -38340,7 +38343,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="328"/>
+      <c r="A4" s="324"/>
       <c r="B4" s="52">
         <v>401</v>
       </c>
@@ -38355,7 +38358,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="328"/>
+      <c r="A5" s="324"/>
       <c r="B5" s="51">
         <v>4018</v>
       </c>
@@ -38370,7 +38373,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="328"/>
+      <c r="A6" s="324"/>
       <c r="B6" s="51">
         <v>4019</v>
       </c>
@@ -38385,7 +38388,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="328"/>
+      <c r="A7" s="324"/>
       <c r="B7" s="52">
         <v>411</v>
       </c>
@@ -38400,7 +38403,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="328"/>
+      <c r="A8" s="324"/>
       <c r="B8" s="51">
         <v>4118</v>
       </c>
@@ -38415,7 +38418,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="328"/>
+      <c r="A9" s="324"/>
       <c r="B9" s="51">
         <v>4119</v>
       </c>
@@ -38430,7 +38433,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="328"/>
+      <c r="A10" s="324"/>
       <c r="B10" s="52">
         <v>412</v>
       </c>
@@ -38445,7 +38448,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="328"/>
+      <c r="A11" s="324"/>
       <c r="B11" s="51">
         <v>4128</v>
       </c>
@@ -38460,7 +38463,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="328"/>
+      <c r="A12" s="324"/>
       <c r="B12" s="51">
         <v>4129</v>
       </c>
@@ -38476,7 +38479,7 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="328"/>
+      <c r="A13" s="324"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83">
         <v>104368.534</v>
@@ -38545,7 +38548,7 @@
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="328" t="s">
+      <c r="A18" s="324" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="49">
@@ -38563,7 +38566,7 @@
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="328"/>
+      <c r="A19" s="324"/>
       <c r="B19" s="75"/>
       <c r="C19" s="76">
         <v>3131.0328</v>
@@ -38611,7 +38614,7 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="330"/>
+      <c r="A22" s="327"/>
       <c r="B22" s="50">
         <v>4428</v>
       </c>
@@ -38627,7 +38630,7 @@
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="330"/>
+      <c r="A23" s="327"/>
       <c r="B23" s="50">
         <v>4429</v>
       </c>
@@ -38643,7 +38646,7 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="330"/>
+      <c r="A24" s="327"/>
       <c r="B24" s="79"/>
       <c r="C24" s="93">
         <v>100912</v>
@@ -38673,7 +38676,7 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="328" t="s">
+      <c r="A26" s="324" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -38691,7 +38694,7 @@
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="328"/>
+      <c r="A27" s="324"/>
       <c r="B27" s="11" t="s">
         <v>66</v>
       </c>
@@ -38707,7 +38710,7 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="328"/>
+      <c r="A28" s="324"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -38723,7 +38726,7 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="328"/>
+      <c r="A29" s="324"/>
       <c r="B29" s="11" t="s">
         <v>68</v>
       </c>
@@ -38739,7 +38742,7 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="328"/>
+      <c r="A30" s="324"/>
       <c r="B30" s="11" t="s">
         <v>69</v>
       </c>
@@ -38755,7 +38758,7 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="328"/>
+      <c r="A31" s="324"/>
       <c r="B31" s="50">
         <v>4178</v>
       </c>
@@ -38771,7 +38774,7 @@
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="328"/>
+      <c r="A32" s="324"/>
       <c r="B32" s="50">
         <v>4179</v>
       </c>
@@ -38787,7 +38790,7 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="328"/>
+      <c r="A33" s="324"/>
       <c r="B33" s="50">
         <v>4308</v>
       </c>
@@ -38803,7 +38806,7 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="328"/>
+      <c r="A34" s="324"/>
       <c r="B34" s="50">
         <v>4309</v>
       </c>
@@ -38823,7 +38826,7 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="328"/>
+      <c r="A35" s="324"/>
       <c r="B35" s="50">
         <v>4398</v>
       </c>
@@ -38839,7 +38842,7 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="328"/>
+      <c r="A36" s="324"/>
       <c r="B36" s="50">
         <v>4399</v>
       </c>
@@ -38855,7 +38858,7 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="328"/>
+      <c r="A37" s="324"/>
       <c r="B37" s="79"/>
       <c r="C37" s="93">
         <v>125188</v>
@@ -38922,7 +38925,7 @@
       <c r="A41" s="322" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="329"/>
+      <c r="B41" s="323"/>
       <c r="C41" s="56">
         <v>333598.7928</v>
       </c>
@@ -38952,8 +38955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38976,7 +38979,7 @@
     <col min="16" max="16" width="18.5703125" style="306" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="306" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.85546875" style="306" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" style="306" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" style="306" customWidth="1"/>
     <col min="20" max="22" width="9.140625" style="290"/>
     <col min="23" max="16384" width="9.140625" style="117"/>
   </cols>
@@ -39044,13 +39047,13 @@
       <c r="V1" s="292"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="347" t="s">
+      <c r="A2" s="345" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="335" t="s">
+      <c r="B2" s="331" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="335" t="s">
+      <c r="C2" s="331" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="168" t="s">
@@ -39088,9 +39091,9 @@
       <c r="S2" s="296"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="348"/>
-      <c r="B3" s="336"/>
-      <c r="C3" s="336"/>
+      <c r="A3" s="346"/>
+      <c r="B3" s="332"/>
+      <c r="C3" s="332"/>
       <c r="D3" s="168" t="s">
         <v>150</v>
       </c>
@@ -39126,11 +39129,11 @@
       <c r="S3" s="296"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="348"/>
-      <c r="B4" s="335" t="s">
+      <c r="A4" s="346"/>
+      <c r="B4" s="331" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="335" t="s">
+      <c r="C4" s="331" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="168" t="s">
@@ -39168,9 +39171,9 @@
       <c r="S4" s="296"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="348"/>
-      <c r="B5" s="336"/>
-      <c r="C5" s="336"/>
+      <c r="A5" s="346"/>
+      <c r="B5" s="332"/>
+      <c r="C5" s="332"/>
       <c r="D5" s="168" t="s">
         <v>152</v>
       </c>
@@ -39206,11 +39209,11 @@
       <c r="S5" s="296"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="348"/>
-      <c r="B6" s="335" t="s">
+      <c r="A6" s="346"/>
+      <c r="B6" s="331" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="335" t="s">
+      <c r="C6" s="331" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="168" t="s">
@@ -39248,9 +39251,9 @@
       <c r="S6" s="296"/>
     </row>
     <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="348"/>
-      <c r="B7" s="336"/>
-      <c r="C7" s="336"/>
+      <c r="A7" s="346"/>
+      <c r="B7" s="332"/>
+      <c r="C7" s="332"/>
       <c r="D7" s="168" t="s">
         <v>154</v>
       </c>
@@ -39286,7 +39289,7 @@
       <c r="S7" s="296"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="349"/>
+      <c r="A8" s="347"/>
       <c r="B8" s="133"/>
       <c r="C8" s="136"/>
       <c r="D8" s="145"/>
@@ -39329,13 +39332,13 @@
       <c r="S8" s="298"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="350" t="s">
+      <c r="A9" s="348" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="335" t="s">
+      <c r="B9" s="331" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="361" t="s">
+      <c r="C9" s="335" t="s">
         <v>140</v>
       </c>
       <c r="D9" s="156" t="s">
@@ -39373,9 +39376,9 @@
       <c r="S9" s="296"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="351"/>
-      <c r="B10" s="336"/>
-      <c r="C10" s="362"/>
+      <c r="A10" s="349"/>
+      <c r="B10" s="332"/>
+      <c r="C10" s="336"/>
       <c r="D10" s="173" t="s">
         <v>156</v>
       </c>
@@ -39411,7 +39414,7 @@
       <c r="S10" s="296"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="352"/>
+      <c r="A11" s="350"/>
       <c r="B11" s="134"/>
       <c r="C11" s="135"/>
       <c r="D11" s="130"/>
@@ -39454,13 +39457,13 @@
       <c r="S11" s="300"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="353" t="s">
+      <c r="A12" s="351" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="359" t="s">
+      <c r="B12" s="333" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="363" t="s">
+      <c r="C12" s="337" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="168" t="s">
@@ -39501,16 +39504,16 @@
       <c r="Q12" s="295"/>
       <c r="R12" s="295"/>
       <c r="S12" s="296">
-        <f t="shared" ref="S12:S17" si="1">M12-N12</f>
+        <f>M12-N12-O12-P12-Q12-R12</f>
         <v>49851.17</v>
       </c>
       <c r="W12" s="290"/>
       <c r="X12" s="290"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="354"/>
-      <c r="B13" s="360"/>
-      <c r="C13" s="364"/>
+      <c r="A13" s="352"/>
+      <c r="B13" s="334"/>
+      <c r="C13" s="338"/>
       <c r="D13" s="168" t="s">
         <v>158</v>
       </c>
@@ -39549,18 +39552,18 @@
       <c r="Q13" s="295"/>
       <c r="R13" s="295"/>
       <c r="S13" s="296">
-        <f t="shared" si="1"/>
+        <f>M13-N13-O13-P13-Q13-R13</f>
         <v>8736.69</v>
       </c>
       <c r="W13" s="290"/>
       <c r="X13" s="290"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="354"/>
-      <c r="B14" s="339" t="s">
+      <c r="A14" s="352"/>
+      <c r="B14" s="340" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="364"/>
+      <c r="C14" s="338"/>
       <c r="D14" s="168" t="s">
         <v>161</v>
       </c>
@@ -39596,16 +39599,16 @@
       <c r="Q14" s="295"/>
       <c r="R14" s="295"/>
       <c r="S14" s="296">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S12:S17" si="1">M14-N14</f>
         <v>19308.63</v>
       </c>
       <c r="W14" s="290"/>
       <c r="X14" s="290"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="354"/>
-      <c r="B15" s="366"/>
-      <c r="C15" s="364"/>
+      <c r="A15" s="352"/>
+      <c r="B15" s="341"/>
+      <c r="C15" s="338"/>
       <c r="D15" s="168" t="s">
         <v>162</v>
       </c>
@@ -39648,11 +39651,11 @@
       <c r="X15" s="290"/>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="354"/>
-      <c r="B16" s="344" t="s">
+      <c r="A16" s="352"/>
+      <c r="B16" s="342" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="364"/>
+      <c r="C16" s="338"/>
       <c r="D16" s="168" t="s">
         <v>194</v>
       </c>
@@ -39698,9 +39701,9 @@
       <c r="X16" s="290"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="354"/>
-      <c r="B17" s="344"/>
-      <c r="C17" s="365"/>
+      <c r="A17" s="352"/>
+      <c r="B17" s="342"/>
+      <c r="C17" s="339"/>
       <c r="D17" s="168" t="s">
         <v>195</v>
       </c>
@@ -39746,7 +39749,7 @@
       <c r="X17" s="290"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="355"/>
+      <c r="A18" s="353"/>
       <c r="B18" s="131"/>
       <c r="C18" s="132"/>
       <c r="D18" s="153"/>
@@ -39799,13 +39802,13 @@
       <c r="X18" s="290"/>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="356" t="s">
+      <c r="A19" s="354" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="335" t="s">
+      <c r="B19" s="331" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="337" t="s">
+      <c r="C19" s="361" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="156" t="s">
@@ -39836,9 +39839,7 @@
         <f>K19+J19</f>
         <v>12138</v>
       </c>
-      <c r="N19" s="295" t="s">
-        <v>166</v>
-      </c>
+      <c r="N19" s="295"/>
       <c r="O19" s="295"/>
       <c r="P19" s="295"/>
       <c r="Q19" s="295"/>
@@ -39851,9 +39852,9 @@
       <c r="X19" s="290"/>
     </row>
     <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="357"/>
-      <c r="B20" s="336"/>
-      <c r="C20" s="338"/>
+      <c r="A20" s="355"/>
+      <c r="B20" s="332"/>
+      <c r="C20" s="362"/>
       <c r="D20" s="122" t="s">
         <v>160</v>
       </c>
@@ -39882,9 +39883,7 @@
         <f>K20+J20</f>
         <v>2142</v>
       </c>
-      <c r="N20" s="295" t="s">
-        <v>166</v>
-      </c>
+      <c r="N20" s="295"/>
       <c r="O20" s="295"/>
       <c r="P20" s="295"/>
       <c r="Q20" s="295"/>
@@ -39897,7 +39896,7 @@
       <c r="X20" s="290"/>
     </row>
     <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="357"/>
+      <c r="A21" s="355"/>
       <c r="B21" s="243"/>
       <c r="C21" s="244"/>
       <c r="D21" s="245" t="s">
@@ -39943,11 +39942,11 @@
       <c r="X21" s="290"/>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="357"/>
-      <c r="B22" s="335" t="s">
+      <c r="A22" s="355"/>
+      <c r="B22" s="331" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="339" t="s">
+      <c r="C22" s="340" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="168" t="s">
@@ -39978,24 +39977,24 @@
         <f t="shared" ref="M22:M27" si="4">K22+J22</f>
         <v>30774</v>
       </c>
-      <c r="N22" s="295" t="s">
-        <v>166</v>
-      </c>
+      <c r="N22" s="295"/>
       <c r="O22" s="295"/>
-      <c r="P22" s="295"/>
+      <c r="P22" s="295">
+        <v>12806.1</v>
+      </c>
       <c r="Q22" s="295"/>
       <c r="R22" s="295"/>
-      <c r="S22" s="296">
-        <f>M22</f>
-        <v>30774</v>
+      <c r="S22" s="383">
+        <f>M22-N22-O22-P22-Q22-R22</f>
+        <v>17967.900000000001</v>
       </c>
       <c r="W22" s="290"/>
       <c r="X22" s="290"/>
     </row>
     <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="357"/>
-      <c r="B23" s="343"/>
-      <c r="C23" s="340"/>
+      <c r="A23" s="355"/>
+      <c r="B23" s="366"/>
+      <c r="C23" s="363"/>
       <c r="D23" s="168" t="s">
         <v>162</v>
       </c>
@@ -40024,24 +40023,24 @@
         <f t="shared" si="4"/>
         <v>5431</v>
       </c>
-      <c r="N23" s="295" t="s">
-        <v>166</v>
-      </c>
+      <c r="N23" s="295"/>
       <c r="O23" s="295"/>
-      <c r="P23" s="295"/>
+      <c r="P23" s="295">
+        <v>2259.9</v>
+      </c>
       <c r="Q23" s="295"/>
       <c r="R23" s="295"/>
       <c r="S23" s="296">
-        <f>M23</f>
-        <v>5431</v>
+        <f>M23-N23-O23-P23-Q23-R23</f>
+        <v>3171.1</v>
       </c>
       <c r="W23" s="290"/>
       <c r="X23" s="290"/>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="357"/>
-      <c r="B24" s="343"/>
-      <c r="C24" s="339" t="s">
+      <c r="A24" s="355"/>
+      <c r="B24" s="366"/>
+      <c r="C24" s="340" t="s">
         <v>139</v>
       </c>
       <c r="D24" s="168" t="s">
@@ -40072,9 +40071,7 @@
         <f t="shared" si="4"/>
         <v>23063</v>
       </c>
-      <c r="N24" s="295" t="s">
-        <v>166</v>
-      </c>
+      <c r="N24" s="295"/>
       <c r="O24" s="295"/>
       <c r="P24" s="295"/>
       <c r="Q24" s="295"/>
@@ -40087,9 +40084,9 @@
       <c r="X24" s="290"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="357"/>
-      <c r="B25" s="343"/>
-      <c r="C25" s="340"/>
+      <c r="A25" s="355"/>
+      <c r="B25" s="366"/>
+      <c r="C25" s="363"/>
       <c r="D25" s="168" t="s">
         <v>162</v>
       </c>
@@ -40118,9 +40115,7 @@
         <f t="shared" si="4"/>
         <v>4069</v>
       </c>
-      <c r="N25" s="295" t="s">
-        <v>166</v>
-      </c>
+      <c r="N25" s="295"/>
       <c r="O25" s="295"/>
       <c r="P25" s="295"/>
       <c r="Q25" s="295"/>
@@ -40133,9 +40128,9 @@
       <c r="X25" s="290"/>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="357"/>
-      <c r="B26" s="343"/>
-      <c r="C26" s="339" t="s">
+      <c r="A26" s="355"/>
+      <c r="B26" s="366"/>
+      <c r="C26" s="340" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="168" t="s">
@@ -40183,9 +40178,9 @@
       <c r="X26" s="290"/>
     </row>
     <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="357"/>
-      <c r="B27" s="343"/>
-      <c r="C27" s="340"/>
+      <c r="A27" s="355"/>
+      <c r="B27" s="366"/>
+      <c r="C27" s="363"/>
       <c r="D27" s="168" t="s">
         <v>162</v>
       </c>
@@ -40231,7 +40226,7 @@
       <c r="X27" s="290"/>
     </row>
     <row r="28" spans="1:24" s="237" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="357"/>
+      <c r="A28" s="355"/>
       <c r="B28" s="249"/>
       <c r="C28" s="244"/>
       <c r="D28" s="239" t="s">
@@ -40280,7 +40275,7 @@
       <c r="R28" s="303"/>
       <c r="S28" s="308">
         <f>SUM(S22:S27)</f>
-        <v>94778.950000000012</v>
+        <v>79712.950000000012</v>
       </c>
       <c r="T28" s="291"/>
       <c r="U28" s="291"/>
@@ -40289,11 +40284,11 @@
       <c r="X28" s="291"/>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="357"/>
-      <c r="B29" s="344" t="s">
+      <c r="A29" s="355"/>
+      <c r="B29" s="342" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="339" t="s">
+      <c r="C29" s="340" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="168" t="s">
@@ -40340,9 +40335,9 @@
       <c r="X29" s="290"/>
     </row>
     <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="357"/>
-      <c r="B30" s="344"/>
-      <c r="C30" s="340"/>
+      <c r="A30" s="355"/>
+      <c r="B30" s="342"/>
+      <c r="C30" s="363"/>
       <c r="D30" s="168" t="s">
         <v>210</v>
       </c>
@@ -40387,7 +40382,7 @@
       <c r="X30" s="290"/>
     </row>
     <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="357"/>
+      <c r="A31" s="355"/>
       <c r="B31" s="250"/>
       <c r="C31" s="251"/>
       <c r="D31" s="252" t="s">
@@ -40424,11 +40419,11 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="357"/>
-      <c r="B32" s="333" t="s">
+      <c r="A32" s="355"/>
+      <c r="B32" s="359" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="341" t="s">
+      <c r="C32" s="364" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="122" t="s">
@@ -40472,9 +40467,9 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="357"/>
-      <c r="B33" s="334"/>
-      <c r="C33" s="342"/>
+      <c r="A33" s="355"/>
+      <c r="B33" s="360"/>
+      <c r="C33" s="365"/>
       <c r="D33" s="126" t="s">
         <v>164</v>
       </c>
@@ -40516,7 +40511,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="357"/>
+      <c r="A34" s="355"/>
       <c r="B34" s="256"/>
       <c r="C34" s="257"/>
       <c r="D34" s="258" t="s">
@@ -40566,7 +40561,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="358"/>
+      <c r="A35" s="356"/>
       <c r="B35" s="137"/>
       <c r="C35" s="138"/>
       <c r="D35" s="159"/>
@@ -40610,11 +40605,11 @@
       <c r="R35" s="305"/>
       <c r="S35" s="307">
         <f>S21+S28+S31+S34</f>
-        <v>118730.15000000001</v>
+        <v>103664.15000000001</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="345" t="s">
+      <c r="A36" s="343" t="s">
         <v>137</v>
       </c>
       <c r="B36" s="116" t="s">
@@ -40660,7 +40655,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="346"/>
+      <c r="A37" s="344"/>
       <c r="B37" s="162"/>
       <c r="C37" s="163"/>
       <c r="D37" s="228"/>
@@ -40701,11 +40696,11 @@
     </row>
     <row r="38" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="129"/>
-      <c r="B38" s="331" t="s">
+      <c r="B38" s="357" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="331"/>
-      <c r="D38" s="332"/>
+      <c r="C38" s="357"/>
+      <c r="D38" s="358"/>
       <c r="E38" s="148">
         <v>333598.7928</v>
       </c>
@@ -40830,6 +40825,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A35"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C9:C10"/>
@@ -40842,22 +40853,6 @@
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A35"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41207,81 +41202,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="368" t="s">
+      <c r="A1" s="378" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="368" t="s">
+      <c r="B1" s="378" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="368" t="s">
+      <c r="C1" s="378" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="367" t="s">
+      <c r="D1" s="377" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="369" t="s">
+      <c r="E1" s="379" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="367" t="s">
+      <c r="F1" s="377" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="367" t="s">
+      <c r="G1" s="377" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="367" t="s">
+      <c r="H1" s="377" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="367" t="s">
+      <c r="I1" s="377" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="367" t="s">
+      <c r="J1" s="377" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="367"/>
-      <c r="L1" s="367"/>
-      <c r="M1" s="367" t="s">
+      <c r="K1" s="377"/>
+      <c r="L1" s="377"/>
+      <c r="M1" s="377" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="367"/>
-      <c r="O1" s="367"/>
-      <c r="P1" s="367"/>
-      <c r="Q1" s="367"/>
-      <c r="R1" s="367"/>
+      <c r="N1" s="377"/>
+      <c r="O1" s="377"/>
+      <c r="P1" s="377"/>
+      <c r="Q1" s="377"/>
+      <c r="R1" s="377"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="368"/>
-      <c r="B2" s="368"/>
-      <c r="C2" s="368"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="367"/>
-      <c r="G2" s="367"/>
-      <c r="H2" s="367"/>
-      <c r="I2" s="367"/>
-      <c r="J2" s="367" t="s">
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="377"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="377"/>
+      <c r="I2" s="377"/>
+      <c r="J2" s="377" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="367"/>
-      <c r="L2" s="367"/>
-      <c r="M2" s="367" t="s">
+      <c r="K2" s="377"/>
+      <c r="L2" s="377"/>
+      <c r="M2" s="377" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="367"/>
-      <c r="O2" s="367"/>
-      <c r="P2" s="367"/>
-      <c r="Q2" s="367"/>
-      <c r="R2" s="367"/>
+      <c r="N2" s="377"/>
+      <c r="O2" s="377"/>
+      <c r="P2" s="377"/>
+      <c r="Q2" s="377"/>
+      <c r="R2" s="377"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="368"/>
-      <c r="B3" s="368"/>
-      <c r="C3" s="368"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="367"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
-      <c r="I3" s="367"/>
+      <c r="A3" s="378"/>
+      <c r="B3" s="378"/>
+      <c r="C3" s="378"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="379"/>
+      <c r="F3" s="377"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="377"/>
+      <c r="I3" s="377"/>
       <c r="J3" s="175">
         <v>4420</v>
       </c>
@@ -41311,35 +41306,35 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="370" t="s">
+      <c r="A4" s="368" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="371"/>
-      <c r="C4" s="371"/>
-      <c r="D4" s="371"/>
-      <c r="E4" s="371"/>
-      <c r="F4" s="371"/>
-      <c r="G4" s="371"/>
-      <c r="H4" s="371"/>
-      <c r="I4" s="371"/>
-      <c r="J4" s="371"/>
-      <c r="K4" s="371"/>
-      <c r="L4" s="371"/>
-      <c r="M4" s="371"/>
-      <c r="N4" s="371"/>
-      <c r="O4" s="371"/>
-      <c r="P4" s="371"/>
-      <c r="Q4" s="371"/>
-      <c r="R4" s="372"/>
+      <c r="B4" s="369"/>
+      <c r="C4" s="369"/>
+      <c r="D4" s="369"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="369"/>
+      <c r="G4" s="369"/>
+      <c r="H4" s="369"/>
+      <c r="I4" s="369"/>
+      <c r="J4" s="369"/>
+      <c r="K4" s="369"/>
+      <c r="L4" s="369"/>
+      <c r="M4" s="369"/>
+      <c r="N4" s="369"/>
+      <c r="O4" s="369"/>
+      <c r="P4" s="369"/>
+      <c r="Q4" s="369"/>
+      <c r="R4" s="370"/>
     </row>
     <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="373" t="s">
+      <c r="A5" s="371" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="374">
+      <c r="B5" s="375">
         <v>44446</v>
       </c>
-      <c r="C5" s="375">
+      <c r="C5" s="376">
         <f>SUM(I5:I15)</f>
         <v>3377.1899999999996</v>
       </c>
@@ -41378,9 +41373,9 @@
       <c r="R5" s="177"/>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="373"/>
-      <c r="B6" s="374"/>
-      <c r="C6" s="375"/>
+      <c r="A6" s="371"/>
+      <c r="B6" s="375"/>
+      <c r="C6" s="376"/>
       <c r="D6" s="177" t="s">
         <v>94</v>
       </c>
@@ -41416,9 +41411,9 @@
       <c r="R6" s="177"/>
     </row>
     <row r="7" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="373"/>
-      <c r="B7" s="374"/>
-      <c r="C7" s="375"/>
+      <c r="A7" s="371"/>
+      <c r="B7" s="375"/>
+      <c r="C7" s="376"/>
       <c r="D7" s="177" t="s">
         <v>103</v>
       </c>
@@ -41454,9 +41449,9 @@
       <c r="R7" s="177"/>
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="373"/>
-      <c r="B8" s="374"/>
-      <c r="C8" s="375"/>
+      <c r="A8" s="371"/>
+      <c r="B8" s="375"/>
+      <c r="C8" s="376"/>
       <c r="D8" s="177" t="s">
         <v>95</v>
       </c>
@@ -41492,9 +41487,9 @@
       <c r="R8" s="177"/>
     </row>
     <row r="9" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="373"/>
-      <c r="B9" s="374"/>
-      <c r="C9" s="375"/>
+      <c r="A9" s="371"/>
+      <c r="B9" s="375"/>
+      <c r="C9" s="376"/>
       <c r="D9" s="177" t="s">
         <v>87</v>
       </c>
@@ -41530,9 +41525,9 @@
       <c r="R9" s="177"/>
     </row>
     <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="373"/>
-      <c r="B10" s="374"/>
-      <c r="C10" s="375"/>
+      <c r="A10" s="371"/>
+      <c r="B10" s="375"/>
+      <c r="C10" s="376"/>
       <c r="D10" s="177" t="s">
         <v>91</v>
       </c>
@@ -41568,9 +41563,9 @@
       <c r="R10" s="177"/>
     </row>
     <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="373"/>
-      <c r="B11" s="374"/>
-      <c r="C11" s="375"/>
+      <c r="A11" s="371"/>
+      <c r="B11" s="375"/>
+      <c r="C11" s="376"/>
       <c r="D11" s="177" t="s">
         <v>90</v>
       </c>
@@ -41606,9 +41601,9 @@
       <c r="R11" s="177"/>
     </row>
     <row r="12" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="373"/>
-      <c r="B12" s="374"/>
-      <c r="C12" s="375"/>
+      <c r="A12" s="371"/>
+      <c r="B12" s="375"/>
+      <c r="C12" s="376"/>
       <c r="D12" s="177" t="s">
         <v>106</v>
       </c>
@@ -41644,9 +41639,9 @@
       <c r="R12" s="177"/>
     </row>
     <row r="13" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="373"/>
-      <c r="B13" s="374"/>
-      <c r="C13" s="375"/>
+      <c r="A13" s="371"/>
+      <c r="B13" s="375"/>
+      <c r="C13" s="376"/>
       <c r="D13" s="177" t="s">
         <v>100</v>
       </c>
@@ -41682,9 +41677,9 @@
       <c r="R13" s="177"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="373"/>
-      <c r="B14" s="374"/>
-      <c r="C14" s="375"/>
+      <c r="A14" s="371"/>
+      <c r="B14" s="375"/>
+      <c r="C14" s="376"/>
       <c r="D14" s="177" t="s">
         <v>181</v>
       </c>
@@ -41716,9 +41711,9 @@
       <c r="R14" s="177"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="373"/>
-      <c r="B15" s="374"/>
-      <c r="C15" s="375"/>
+      <c r="A15" s="371"/>
+      <c r="B15" s="375"/>
+      <c r="C15" s="376"/>
       <c r="D15" s="177" t="s">
         <v>182</v>
       </c>
@@ -41750,13 +41745,13 @@
       <c r="R15" s="177"/>
     </row>
     <row r="16" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="373" t="s">
+      <c r="A16" s="371" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="374">
+      <c r="B16" s="375">
         <v>44446</v>
       </c>
-      <c r="C16" s="375">
+      <c r="C16" s="376">
         <f>SUM(I16:I24)</f>
         <v>2116.5099999999998</v>
       </c>
@@ -41795,9 +41790,9 @@
       <c r="R16" s="177"/>
     </row>
     <row r="17" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="373"/>
-      <c r="B17" s="374"/>
-      <c r="C17" s="375"/>
+      <c r="A17" s="371"/>
+      <c r="B17" s="375"/>
+      <c r="C17" s="376"/>
       <c r="D17" s="177" t="s">
         <v>92</v>
       </c>
@@ -41833,9 +41828,9 @@
       <c r="R17" s="177"/>
     </row>
     <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="373"/>
-      <c r="B18" s="374"/>
-      <c r="C18" s="375"/>
+      <c r="A18" s="371"/>
+      <c r="B18" s="375"/>
+      <c r="C18" s="376"/>
       <c r="D18" s="177" t="s">
         <v>99</v>
       </c>
@@ -41871,9 +41866,9 @@
       <c r="R18" s="177"/>
     </row>
     <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="373"/>
-      <c r="B19" s="374"/>
-      <c r="C19" s="375"/>
+      <c r="A19" s="371"/>
+      <c r="B19" s="375"/>
+      <c r="C19" s="376"/>
       <c r="D19" s="177" t="s">
         <v>86</v>
       </c>
@@ -41909,9 +41904,9 @@
       <c r="R19" s="177"/>
     </row>
     <row r="20" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="373"/>
-      <c r="B20" s="374"/>
-      <c r="C20" s="375"/>
+      <c r="A20" s="371"/>
+      <c r="B20" s="375"/>
+      <c r="C20" s="376"/>
       <c r="D20" s="177" t="s">
         <v>89</v>
       </c>
@@ -41947,9 +41942,9 @@
       <c r="R20" s="177"/>
     </row>
     <row r="21" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="373"/>
-      <c r="B21" s="374"/>
-      <c r="C21" s="375"/>
+      <c r="A21" s="371"/>
+      <c r="B21" s="375"/>
+      <c r="C21" s="376"/>
       <c r="D21" s="177" t="s">
         <v>104</v>
       </c>
@@ -41985,9 +41980,9 @@
       <c r="R21" s="193"/>
     </row>
     <row r="22" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="373"/>
-      <c r="B22" s="374"/>
-      <c r="C22" s="375"/>
+      <c r="A22" s="371"/>
+      <c r="B22" s="375"/>
+      <c r="C22" s="376"/>
       <c r="D22" s="177" t="s">
         <v>100</v>
       </c>
@@ -42023,9 +42018,9 @@
       <c r="R22" s="193"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="373"/>
-      <c r="B23" s="374"/>
-      <c r="C23" s="375"/>
+      <c r="A23" s="371"/>
+      <c r="B23" s="375"/>
+      <c r="C23" s="376"/>
       <c r="D23" s="177" t="s">
         <v>181</v>
       </c>
@@ -42057,9 +42052,9 @@
       <c r="R23" s="193"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="373"/>
-      <c r="B24" s="374"/>
-      <c r="C24" s="375"/>
+      <c r="A24" s="371"/>
+      <c r="B24" s="375"/>
+      <c r="C24" s="376"/>
       <c r="D24" s="177" t="s">
         <v>182</v>
       </c>
@@ -42135,35 +42130,35 @@
       <c r="R25" s="193"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="370" t="s">
+      <c r="A26" s="368" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="371"/>
-      <c r="C26" s="371"/>
-      <c r="D26" s="371"/>
-      <c r="E26" s="371"/>
-      <c r="F26" s="371"/>
-      <c r="G26" s="371"/>
-      <c r="H26" s="371"/>
-      <c r="I26" s="371"/>
-      <c r="J26" s="371"/>
-      <c r="K26" s="371"/>
-      <c r="L26" s="371"/>
-      <c r="M26" s="371"/>
-      <c r="N26" s="371"/>
-      <c r="O26" s="371"/>
-      <c r="P26" s="371"/>
-      <c r="Q26" s="371"/>
-      <c r="R26" s="372"/>
+      <c r="B26" s="369"/>
+      <c r="C26" s="369"/>
+      <c r="D26" s="369"/>
+      <c r="E26" s="369"/>
+      <c r="F26" s="369"/>
+      <c r="G26" s="369"/>
+      <c r="H26" s="369"/>
+      <c r="I26" s="369"/>
+      <c r="J26" s="369"/>
+      <c r="K26" s="369"/>
+      <c r="L26" s="369"/>
+      <c r="M26" s="369"/>
+      <c r="N26" s="369"/>
+      <c r="O26" s="369"/>
+      <c r="P26" s="369"/>
+      <c r="Q26" s="369"/>
+      <c r="R26" s="370"/>
     </row>
     <row r="27" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="373" t="s">
+      <c r="A27" s="371" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="377">
+      <c r="B27" s="372">
         <v>44516</v>
       </c>
-      <c r="C27" s="378">
+      <c r="C27" s="373">
         <f>SUM(I27:I31)</f>
         <v>1929.6600000000003</v>
       </c>
@@ -42202,9 +42197,9 @@
       <c r="R27" s="193"/>
     </row>
     <row r="28" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="373"/>
-      <c r="B28" s="377"/>
-      <c r="C28" s="379"/>
+      <c r="A28" s="371"/>
+      <c r="B28" s="372"/>
+      <c r="C28" s="374"/>
       <c r="D28" s="203" t="s">
         <v>119</v>
       </c>
@@ -42240,9 +42235,9 @@
       <c r="R28" s="193"/>
     </row>
     <row r="29" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="373"/>
-      <c r="B29" s="377"/>
-      <c r="C29" s="379"/>
+      <c r="A29" s="371"/>
+      <c r="B29" s="372"/>
+      <c r="C29" s="374"/>
       <c r="D29" s="203" t="s">
         <v>117</v>
       </c>
@@ -42278,9 +42273,9 @@
       <c r="R29" s="193"/>
     </row>
     <row r="30" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="373"/>
-      <c r="B30" s="377"/>
-      <c r="C30" s="379"/>
+      <c r="A30" s="371"/>
+      <c r="B30" s="372"/>
+      <c r="C30" s="374"/>
       <c r="D30" s="177" t="s">
         <v>111</v>
       </c>
@@ -42316,9 +42311,9 @@
       <c r="R30" s="193"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="373"/>
-      <c r="B31" s="377"/>
-      <c r="C31" s="379"/>
+      <c r="A31" s="371"/>
+      <c r="B31" s="372"/>
+      <c r="C31" s="374"/>
       <c r="D31" s="177" t="s">
         <v>181</v>
       </c>
@@ -42350,13 +42345,13 @@
       <c r="R31" s="193"/>
     </row>
     <row r="32" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="373" t="s">
+      <c r="A32" s="371" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="377">
+      <c r="B32" s="372">
         <v>44516</v>
       </c>
-      <c r="C32" s="378">
+      <c r="C32" s="373">
         <f>SUM(I32:I35)</f>
         <v>1294</v>
       </c>
@@ -42395,9 +42390,9 @@
       <c r="R32" s="193"/>
     </row>
     <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="373"/>
-      <c r="B33" s="377"/>
-      <c r="C33" s="379"/>
+      <c r="A33" s="371"/>
+      <c r="B33" s="372"/>
+      <c r="C33" s="374"/>
       <c r="D33" s="203" t="s">
         <v>114</v>
       </c>
@@ -42433,9 +42428,9 @@
       <c r="R33" s="193"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="373"/>
-      <c r="B34" s="377"/>
-      <c r="C34" s="379"/>
+      <c r="A34" s="371"/>
+      <c r="B34" s="372"/>
+      <c r="C34" s="374"/>
       <c r="D34" s="203" t="s">
         <v>113</v>
       </c>
@@ -42471,9 +42466,9 @@
       <c r="R34" s="193"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="373"/>
-      <c r="B35" s="377"/>
-      <c r="C35" s="379"/>
+      <c r="A35" s="371"/>
+      <c r="B35" s="372"/>
+      <c r="C35" s="374"/>
       <c r="D35" s="177" t="s">
         <v>181</v>
       </c>
@@ -42593,16 +42588,16 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="376" t="s">
+      <c r="A38" s="367" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="376"/>
-      <c r="C38" s="376"/>
-      <c r="D38" s="376"/>
-      <c r="E38" s="376"/>
-      <c r="F38" s="376"/>
-      <c r="G38" s="376"/>
-      <c r="H38" s="376"/>
+      <c r="B38" s="367"/>
+      <c r="C38" s="367"/>
+      <c r="D38" s="367"/>
+      <c r="E38" s="367"/>
+      <c r="F38" s="367"/>
+      <c r="G38" s="367"/>
+      <c r="H38" s="367"/>
       <c r="I38" s="195">
         <f>SUM(I5:I37)</f>
         <v>11723.419999999998</v>
@@ -42646,6 +42641,26 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A26:R26"/>
     <mergeCell ref="A27:A31"/>
@@ -42654,26 +42669,6 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42701,71 +42696,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="368" t="s">
+      <c r="A1" s="378" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="368" t="s">
+      <c r="B1" s="378" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="368" t="s">
+      <c r="C1" s="378" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="367" t="s">
+      <c r="D1" s="377" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="369" t="s">
+      <c r="E1" s="379" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="367" t="s">
+      <c r="F1" s="377" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="367" t="s">
+      <c r="G1" s="377" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="367" t="s">
+      <c r="H1" s="377" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="367" t="s">
+      <c r="I1" s="377" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="367" t="s">
+      <c r="J1" s="377" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="367"/>
-      <c r="L1" s="367"/>
-      <c r="M1" s="367"/>
-      <c r="N1" s="367"/>
-      <c r="O1" s="367"/>
+      <c r="K1" s="377"/>
+      <c r="L1" s="377"/>
+      <c r="M1" s="377"/>
+      <c r="N1" s="377"/>
+      <c r="O1" s="377"/>
     </row>
     <row r="2" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="368"/>
-      <c r="B2" s="368"/>
-      <c r="C2" s="368"/>
-      <c r="D2" s="367"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="367"/>
-      <c r="G2" s="367"/>
-      <c r="H2" s="367"/>
-      <c r="I2" s="367"/>
-      <c r="J2" s="367" t="s">
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="377"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="377"/>
+      <c r="I2" s="377"/>
+      <c r="J2" s="377" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="367"/>
-      <c r="L2" s="367"/>
-      <c r="M2" s="367"/>
-      <c r="N2" s="367"/>
-      <c r="O2" s="367"/>
+      <c r="K2" s="377"/>
+      <c r="L2" s="377"/>
+      <c r="M2" s="377"/>
+      <c r="N2" s="377"/>
+      <c r="O2" s="377"/>
     </row>
     <row r="3" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="368"/>
-      <c r="B3" s="368"/>
-      <c r="C3" s="368"/>
-      <c r="D3" s="367"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="367"/>
-      <c r="G3" s="367"/>
-      <c r="H3" s="367"/>
-      <c r="I3" s="367"/>
+      <c r="A3" s="378"/>
+      <c r="B3" s="378"/>
+      <c r="C3" s="378"/>
+      <c r="D3" s="377"/>
+      <c r="E3" s="379"/>
+      <c r="F3" s="377"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="377"/>
+      <c r="I3" s="377"/>
       <c r="J3" s="175">
         <v>4428</v>
       </c>
@@ -42786,23 +42781,23 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="370" t="s">
+      <c r="A4" s="368" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="371"/>
-      <c r="C4" s="371"/>
-      <c r="D4" s="371"/>
-      <c r="E4" s="371"/>
-      <c r="F4" s="371"/>
-      <c r="G4" s="371"/>
-      <c r="H4" s="371"/>
-      <c r="I4" s="371"/>
-      <c r="J4" s="371"/>
-      <c r="K4" s="371"/>
-      <c r="L4" s="371"/>
-      <c r="M4" s="371"/>
-      <c r="N4" s="371"/>
-      <c r="O4" s="372"/>
+      <c r="B4" s="369"/>
+      <c r="C4" s="369"/>
+      <c r="D4" s="369"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="369"/>
+      <c r="G4" s="369"/>
+      <c r="H4" s="369"/>
+      <c r="I4" s="369"/>
+      <c r="J4" s="369"/>
+      <c r="K4" s="369"/>
+      <c r="L4" s="369"/>
+      <c r="M4" s="369"/>
+      <c r="N4" s="369"/>
+      <c r="O4" s="370"/>
     </row>
     <row r="5" spans="1:15" s="219" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="194" t="s">
@@ -42842,23 +42837,23 @@
       <c r="O5" s="177"/>
     </row>
     <row r="6" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="370" t="s">
+      <c r="A6" s="368" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="371"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
-      <c r="G6" s="371"/>
-      <c r="H6" s="371"/>
-      <c r="I6" s="371"/>
-      <c r="J6" s="371"/>
-      <c r="K6" s="371"/>
-      <c r="L6" s="371"/>
-      <c r="M6" s="371"/>
-      <c r="N6" s="371"/>
-      <c r="O6" s="372"/>
+      <c r="B6" s="369"/>
+      <c r="C6" s="369"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="369"/>
+      <c r="G6" s="369"/>
+      <c r="H6" s="369"/>
+      <c r="I6" s="369"/>
+      <c r="J6" s="369"/>
+      <c r="K6" s="369"/>
+      <c r="L6" s="369"/>
+      <c r="M6" s="369"/>
+      <c r="N6" s="369"/>
+      <c r="O6" s="370"/>
     </row>
     <row r="7" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="221"/>

--- a/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
+++ b/1. DOKUMENTY BUDŻETOWE/Budzet z kosztami i rozliczeniem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIURO\8. URBACT\1. DOKUMENTY BUDŻETOWE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3A4F6E-E056-4E69-A177-8546D7892109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C537AAA-7C94-474B-8E3F-281DA1C89412}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3746,6 +3746,9 @@
     <xf numFmtId="2" fontId="38" fillId="23" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3772,8 +3775,10 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3782,17 +3787,25 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3800,32 +3813,26 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3872,35 +3879,37 @@
     <xf numFmtId="0" fontId="40" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3915,6 +3924,15 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="45" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3924,21 +3942,6 @@
     <xf numFmtId="0" fontId="46" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3946,9 +3949,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4227,11 +4227,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="314" t="s">
+      <c r="B1" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4346,11 +4346,11 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="316" t="s">
+      <c r="C5" s="317" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="317"/>
-      <c r="E5" s="318"/>
+      <c r="D5" s="318"/>
+      <c r="E5" s="319"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -4403,12 +4403,12 @@
     </row>
     <row r="7" spans="1:26" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="319" t="s">
+      <c r="B7" s="320" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="320"/>
-      <c r="D7" s="320"/>
-      <c r="E7" s="321"/>
+      <c r="C7" s="321"/>
+      <c r="D7" s="321"/>
+      <c r="E7" s="322"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4524,7 +4524,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="309" t="s">
+      <c r="A11" s="310" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -4559,7 +4559,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="310"/>
+      <c r="A12" s="311"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -4592,7 +4592,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="311"/>
+      <c r="A13" s="312"/>
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="309" t="s">
+      <c r="A14" s="310" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -4660,7 +4660,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="310"/>
+      <c r="A15" s="311"/>
       <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="311"/>
+      <c r="A16" s="312"/>
       <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
@@ -4726,7 +4726,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="309" t="s">
+      <c r="A17" s="310" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -4761,7 +4761,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="311"/>
+      <c r="A18" s="312"/>
       <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
@@ -4794,7 +4794,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="309" t="s">
+      <c r="A19" s="310" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -4829,7 +4829,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="310"/>
+      <c r="A20" s="311"/>
       <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
@@ -4862,7 +4862,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="310"/>
+      <c r="A21" s="311"/>
       <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
@@ -4895,7 +4895,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="310"/>
+      <c r="A22" s="311"/>
       <c r="B22" s="11" t="s">
         <v>24</v>
       </c>
@@ -4928,7 +4928,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="310"/>
+      <c r="A23" s="311"/>
       <c r="B23" s="11" t="s">
         <v>25</v>
       </c>
@@ -4961,7 +4961,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="310"/>
+      <c r="A24" s="311"/>
       <c r="B24" s="11" t="s">
         <v>26</v>
       </c>
@@ -4994,7 +4994,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="311"/>
+      <c r="A25" s="312"/>
       <c r="B25" s="15" t="s">
         <v>27</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="309" t="s">
+      <c r="A26" s="310" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -5062,7 +5062,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="311"/>
+      <c r="A27" s="312"/>
       <c r="B27" s="15" t="s">
         <v>29</v>
       </c>
@@ -5095,10 +5095,10 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="312" t="s">
+      <c r="A28" s="313" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="313"/>
+      <c r="B28" s="314"/>
       <c r="C28" s="16" t="e">
         <f>C13+C16+C18+C25+C27</f>
         <v>#REF!</v>
@@ -5226,7 +5226,7 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="309" t="s">
+      <c r="A32" s="310" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -5270,7 +5270,7 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="310"/>
+      <c r="A33" s="311"/>
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -5310,7 +5310,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="311"/>
+      <c r="A34" s="312"/>
       <c r="B34" s="13" t="s">
         <v>12</v>
       </c>
@@ -5352,7 +5352,7 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="309" t="s">
+      <c r="A35" s="310" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -5396,7 +5396,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="310"/>
+      <c r="A36" s="311"/>
       <c r="B36" s="11" t="s">
         <v>15</v>
       </c>
@@ -5438,7 +5438,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="311"/>
+      <c r="A37" s="312"/>
       <c r="B37" s="15" t="s">
         <v>16</v>
       </c>
@@ -5480,7 +5480,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="309" t="s">
+      <c r="A38" s="310" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -5524,7 +5524,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="311"/>
+      <c r="A39" s="312"/>
       <c r="B39" s="15" t="s">
         <v>19</v>
       </c>
@@ -5566,7 +5566,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="309" t="s">
+      <c r="A40" s="310" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -5610,7 +5610,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="310"/>
+      <c r="A41" s="311"/>
       <c r="B41" s="11" t="s">
         <v>22</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="310"/>
+      <c r="A42" s="311"/>
       <c r="B42" s="11" t="s">
         <v>23</v>
       </c>
@@ -5694,7 +5694,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="310"/>
+      <c r="A43" s="311"/>
       <c r="B43" s="11" t="s">
         <v>24</v>
       </c>
@@ -5736,7 +5736,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="310"/>
+      <c r="A44" s="311"/>
       <c r="B44" s="11" t="s">
         <v>25</v>
       </c>
@@ -5778,7 +5778,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="310"/>
+      <c r="A45" s="311"/>
       <c r="B45" s="11" t="s">
         <v>26</v>
       </c>
@@ -5820,7 +5820,7 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="311"/>
+      <c r="A46" s="312"/>
       <c r="B46" s="15" t="s">
         <v>27</v>
       </c>
@@ -5862,7 +5862,7 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="309" t="s">
+      <c r="A47" s="310" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -5906,7 +5906,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="311"/>
+      <c r="A48" s="312"/>
       <c r="B48" s="15" t="s">
         <v>29</v>
       </c>
@@ -5948,10 +5948,10 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="312" t="s">
+      <c r="A49" s="313" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="313"/>
+      <c r="B49" s="314"/>
       <c r="C49" s="16" t="e">
         <f t="shared" ref="C49:F49" si="13">C34+C37+C39+C46+C48</f>
         <v>#REF!</v>
@@ -32717,7 +32717,7 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="309" t="s">
+      <c r="A6" s="310" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -32728,7 +32728,7 @@
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="310"/>
+      <c r="A7" s="311"/>
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -32739,7 +32739,7 @@
       <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="311"/>
+      <c r="A8" s="312"/>
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
@@ -32751,7 +32751,7 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="309" t="s">
+      <c r="A9" s="310" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -32762,7 +32762,7 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="310"/>
+      <c r="A10" s="311"/>
       <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
@@ -32774,7 +32774,7 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="311"/>
+      <c r="A11" s="312"/>
       <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
@@ -32786,7 +32786,7 @@
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="309" t="s">
+      <c r="A12" s="310" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -32799,7 +32799,7 @@
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="311"/>
+      <c r="A13" s="312"/>
       <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
@@ -32811,7 +32811,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="309" t="s">
+      <c r="A14" s="310" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -32822,7 +32822,7 @@
       <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="310"/>
+      <c r="A15" s="311"/>
       <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
@@ -32833,7 +32833,7 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="310"/>
+      <c r="A16" s="311"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -32844,7 +32844,7 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="310"/>
+      <c r="A17" s="311"/>
       <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
@@ -32855,7 +32855,7 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="310"/>
+      <c r="A18" s="311"/>
       <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
@@ -32866,7 +32866,7 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="310"/>
+      <c r="A19" s="311"/>
       <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
@@ -32877,7 +32877,7 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="311"/>
+      <c r="A20" s="312"/>
       <c r="B20" s="15" t="s">
         <v>27</v>
       </c>
@@ -32889,7 +32889,7 @@
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="309" t="s">
+      <c r="A21" s="310" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -32902,7 +32902,7 @@
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="311"/>
+      <c r="A22" s="312"/>
       <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
@@ -32914,10 +32914,10 @@
       <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="312" t="s">
+      <c r="A23" s="313" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="313"/>
+      <c r="B23" s="314"/>
       <c r="C23" s="16">
         <f>C8+C11+C13+C20+C22</f>
         <v>70083.78</v>
@@ -32965,7 +32965,7 @@
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="309" t="s">
+      <c r="A27" s="310" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -32978,7 +32978,7 @@
       <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="310"/>
+      <c r="A28" s="311"/>
       <c r="B28" s="11" t="s">
         <v>11</v>
       </c>
@@ -32999,7 +32999,7 @@
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="311"/>
+      <c r="A29" s="312"/>
       <c r="B29" s="13" t="s">
         <v>12</v>
       </c>
@@ -33022,7 +33022,7 @@
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="309" t="s">
+      <c r="A30" s="310" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="29" t="s">
@@ -33035,7 +33035,7 @@
       <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="310"/>
+      <c r="A31" s="311"/>
       <c r="B31" s="11" t="s">
         <v>15</v>
       </c>
@@ -33058,7 +33058,7 @@
       <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="311"/>
+      <c r="A32" s="312"/>
       <c r="B32" s="15" t="s">
         <v>16</v>
       </c>
@@ -33081,7 +33081,7 @@
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="309" t="s">
+      <c r="A33" s="310" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -33104,7 +33104,7 @@
       <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="311"/>
+      <c r="A34" s="312"/>
       <c r="B34" s="15" t="s">
         <v>19</v>
       </c>
@@ -33127,7 +33127,7 @@
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="309" t="s">
+      <c r="A35" s="310" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="29" t="s">
@@ -33140,7 +33140,7 @@
       <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="310"/>
+      <c r="A36" s="311"/>
       <c r="B36" s="11" t="s">
         <v>22</v>
       </c>
@@ -33161,7 +33161,7 @@
       <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="310"/>
+      <c r="A37" s="311"/>
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
@@ -33182,7 +33182,7 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="310"/>
+      <c r="A38" s="311"/>
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
@@ -33203,7 +33203,7 @@
       <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="310"/>
+      <c r="A39" s="311"/>
       <c r="B39" s="11" t="s">
         <v>25</v>
       </c>
@@ -33224,7 +33224,7 @@
       <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="310"/>
+      <c r="A40" s="311"/>
       <c r="B40" s="11" t="s">
         <v>26</v>
       </c>
@@ -33245,7 +33245,7 @@
       <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="311"/>
+      <c r="A41" s="312"/>
       <c r="B41" s="15" t="s">
         <v>27</v>
       </c>
@@ -33268,7 +33268,7 @@
       <c r="G41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="309" t="s">
+      <c r="A42" s="310" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -33290,7 +33290,7 @@
       <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="311"/>
+      <c r="A43" s="312"/>
       <c r="B43" s="15" t="s">
         <v>29</v>
       </c>
@@ -33312,10 +33312,10 @@
       <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="312" t="s">
+      <c r="A44" s="313" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="313"/>
+      <c r="B44" s="314"/>
       <c r="C44" s="16">
         <f t="shared" ref="C44:F44" si="9">C29+C32+C34+C41+C43</f>
         <v>70083.78</v>
@@ -33377,7 +33377,7 @@
       <c r="I48" s="26"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="329" t="s">
+      <c r="A49" s="325" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -33403,7 +33403,7 @@
       <c r="I49" s="26"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="325"/>
+      <c r="A50" s="326"/>
       <c r="B50" s="40" t="s">
         <v>47</v>
       </c>
@@ -33427,7 +33427,7 @@
       <c r="I50" s="26"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="329" t="s">
+      <c r="A51" s="325" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -33453,7 +33453,7 @@
       <c r="I51" s="26"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="325"/>
+      <c r="A52" s="326"/>
       <c r="B52" s="15" t="s">
         <v>50</v>
       </c>
@@ -33477,7 +33477,7 @@
       <c r="I52" s="26"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="326" t="s">
+      <c r="A53" s="327" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -33503,7 +33503,7 @@
       <c r="I53" s="26"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="330"/>
+      <c r="A54" s="328"/>
       <c r="B54" s="15" t="s">
         <v>53</v>
       </c>
@@ -33527,7 +33527,7 @@
       <c r="I54" s="26"/>
     </row>
     <row r="55" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="329" t="s">
+      <c r="A55" s="325" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -33553,7 +33553,7 @@
       <c r="I55" s="26"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="324"/>
+      <c r="A56" s="329"/>
       <c r="B56" s="11" t="s">
         <v>56</v>
       </c>
@@ -33577,7 +33577,7 @@
       <c r="I56" s="26"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="324"/>
+      <c r="A57" s="329"/>
       <c r="B57" s="11" t="s">
         <v>57</v>
       </c>
@@ -33601,7 +33601,7 @@
       <c r="I57" s="26"/>
     </row>
     <row r="58" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="324"/>
+      <c r="A58" s="329"/>
       <c r="B58" s="11" t="s">
         <v>58</v>
       </c>
@@ -33625,7 +33625,7 @@
       <c r="I58" s="26"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="324"/>
+      <c r="A59" s="329"/>
       <c r="B59" s="11" t="s">
         <v>59</v>
       </c>
@@ -33649,7 +33649,7 @@
       <c r="I59" s="26"/>
     </row>
     <row r="60" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A60" s="325"/>
+      <c r="A60" s="326"/>
       <c r="B60" s="15" t="s">
         <v>60</v>
       </c>
@@ -33673,7 +33673,7 @@
       <c r="I60" s="26"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="326" t="s">
+      <c r="A61" s="327" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -33696,7 +33696,7 @@
       <c r="I61" s="26"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="330"/>
+      <c r="A62" s="328"/>
       <c r="B62" s="15" t="s">
         <v>62</v>
       </c>
@@ -33720,10 +33720,10 @@
       <c r="I62" s="26"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="322" t="s">
+      <c r="A63" s="323" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="328"/>
+      <c r="B63" s="324"/>
       <c r="C63" s="56">
         <f>C50+C52+C54+C60+C62</f>
         <v>333598.7928</v>
@@ -33781,7 +33781,7 @@
       <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="324" t="s">
+      <c r="A68" s="329" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="104" t="s">
@@ -33803,7 +33803,7 @@
       <c r="H68" s="26"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="324"/>
+      <c r="A69" s="329"/>
       <c r="B69" s="52">
         <v>401</v>
       </c>
@@ -33820,7 +33820,7 @@
       <c r="H69" s="26"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="324"/>
+      <c r="A70" s="329"/>
       <c r="B70" s="51">
         <v>4018</v>
       </c>
@@ -33848,7 +33848,7 @@
       <c r="I70" s="102"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="324"/>
+      <c r="A71" s="329"/>
       <c r="B71" s="51">
         <v>4019</v>
       </c>
@@ -33880,7 +33880,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="324"/>
+      <c r="A72" s="329"/>
       <c r="B72" s="52">
         <v>411</v>
       </c>
@@ -33905,7 +33905,7 @@
       <c r="I72" s="102"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="324"/>
+      <c r="A73" s="329"/>
       <c r="B73" s="51">
         <v>4118</v>
       </c>
@@ -33939,7 +33939,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="324"/>
+      <c r="A74" s="329"/>
       <c r="B74" s="51">
         <v>4119</v>
       </c>
@@ -33959,7 +33959,7 @@
       <c r="H74" s="26"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="324"/>
+      <c r="A75" s="329"/>
       <c r="B75" s="52">
         <v>412</v>
       </c>
@@ -33980,7 +33980,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="324"/>
+      <c r="A76" s="329"/>
       <c r="B76" s="51">
         <v>4128</v>
       </c>
@@ -34000,7 +34000,7 @@
       <c r="H76" s="26"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="324"/>
+      <c r="A77" s="329"/>
       <c r="B77" s="51">
         <v>4129</v>
       </c>
@@ -34020,7 +34020,7 @@
       <c r="H77" s="26"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="324"/>
+      <c r="A78" s="329"/>
       <c r="B78" s="82"/>
       <c r="C78" s="83">
         <f>C77+C76+C74+C73+C71+C70</f>
@@ -34038,7 +34038,7 @@
       <c r="H78" s="26"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="325"/>
+      <c r="A79" s="326"/>
       <c r="B79" s="40" t="s">
         <v>47</v>
       </c>
@@ -34106,7 +34106,7 @@
       <c r="H82" s="26"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="324" t="s">
+      <c r="A83" s="329" t="s">
         <v>48</v>
       </c>
       <c r="B83" s="49">
@@ -34128,7 +34128,7 @@
       <c r="H83" s="26"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="324"/>
+      <c r="A84" s="329"/>
       <c r="B84" s="75"/>
       <c r="C84" s="76">
         <f>C82+C83</f>
@@ -34146,7 +34146,7 @@
       <c r="H84" s="26"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="325"/>
+      <c r="A85" s="326"/>
       <c r="B85" s="15" t="s">
         <v>50</v>
       </c>
@@ -34166,7 +34166,7 @@
       <c r="H85" s="26"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="326" t="s">
+      <c r="A86" s="327" t="s">
         <v>51</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -34188,7 +34188,7 @@
       <c r="H86" s="26"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="327"/>
+      <c r="A87" s="331"/>
       <c r="B87" s="50">
         <v>4428</v>
       </c>
@@ -34208,7 +34208,7 @@
       <c r="H87" s="26"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="327"/>
+      <c r="A88" s="331"/>
       <c r="B88" s="50">
         <v>4429</v>
       </c>
@@ -34228,7 +34228,7 @@
       <c r="H88" s="26"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="327"/>
+      <c r="A89" s="331"/>
       <c r="B89" s="79"/>
       <c r="C89" s="93">
         <f>C87+C88</f>
@@ -34246,7 +34246,7 @@
       <c r="H89" s="26"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="325"/>
+      <c r="A90" s="326"/>
       <c r="B90" s="15" t="s">
         <v>53</v>
       </c>
@@ -34266,7 +34266,7 @@
       <c r="H90" s="26"/>
     </row>
     <row r="91" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A91" s="324" t="s">
+      <c r="A91" s="329" t="s">
         <v>54</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -34288,7 +34288,7 @@
       <c r="H91" s="26"/>
     </row>
     <row r="92" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="324"/>
+      <c r="A92" s="329"/>
       <c r="B92" s="11" t="s">
         <v>66</v>
       </c>
@@ -34308,7 +34308,7 @@
       <c r="H92" s="26"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="324"/>
+      <c r="A93" s="329"/>
       <c r="B93" s="11" t="s">
         <v>67</v>
       </c>
@@ -34328,7 +34328,7 @@
       <c r="H93" s="26"/>
     </row>
     <row r="94" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A94" s="324"/>
+      <c r="A94" s="329"/>
       <c r="B94" s="11" t="s">
         <v>68</v>
       </c>
@@ -34348,7 +34348,7 @@
       <c r="H94" s="26"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="324"/>
+      <c r="A95" s="329"/>
       <c r="B95" s="11" t="s">
         <v>69</v>
       </c>
@@ -34368,7 +34368,7 @@
       <c r="H95" s="26"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="324"/>
+      <c r="A96" s="329"/>
       <c r="B96" s="50">
         <v>4178</v>
       </c>
@@ -34387,7 +34387,7 @@
       <c r="H96" s="26"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="324"/>
+      <c r="A97" s="329"/>
       <c r="B97" s="50">
         <v>4179</v>
       </c>
@@ -34406,7 +34406,7 @@
       <c r="H97" s="26"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="324"/>
+      <c r="A98" s="329"/>
       <c r="B98" s="50">
         <v>4308</v>
       </c>
@@ -34423,7 +34423,7 @@
       <c r="H98" s="26"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="324"/>
+      <c r="A99" s="329"/>
       <c r="B99" s="50">
         <v>4309</v>
       </c>
@@ -34440,7 +34440,7 @@
       <c r="H99" s="26"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="324"/>
+      <c r="A100" s="329"/>
       <c r="B100" s="50">
         <v>4398</v>
       </c>
@@ -34459,7 +34459,7 @@
       <c r="H100" s="26"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="324"/>
+      <c r="A101" s="329"/>
       <c r="B101" s="50">
         <v>4399</v>
       </c>
@@ -34478,7 +34478,7 @@
       <c r="H101" s="26"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="324"/>
+      <c r="A102" s="329"/>
       <c r="B102" s="79"/>
       <c r="C102" s="93">
         <f>SUM(C96:C101)</f>
@@ -34496,7 +34496,7 @@
       <c r="H102" s="26"/>
     </row>
     <row r="103" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A103" s="325"/>
+      <c r="A103" s="326"/>
       <c r="B103" s="15" t="s">
         <v>70</v>
       </c>
@@ -34516,7 +34516,7 @@
       <c r="H103" s="26"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="326" t="s">
+      <c r="A104" s="327" t="s">
         <v>61</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -34538,7 +34538,7 @@
       <c r="H104" s="26"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="325"/>
+      <c r="A105" s="326"/>
       <c r="B105" s="15" t="s">
         <v>62</v>
       </c>
@@ -34558,10 +34558,10 @@
       <c r="H105" s="26"/>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="322" t="s">
+      <c r="A106" s="323" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="323"/>
+      <c r="B106" s="330"/>
       <c r="C106" s="56">
         <f>C79+C85+C90+C103+C105</f>
         <v>333598.7928</v>
@@ -38251,11 +38251,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A68:A79"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A62"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A6:A8"/>
@@ -38263,18 +38270,11 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A68:A79"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A103"/>
-    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -38326,7 +38326,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="329" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="112" t="s">
@@ -38343,7 +38343,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="324"/>
+      <c r="A4" s="329"/>
       <c r="B4" s="52">
         <v>401</v>
       </c>
@@ -38358,7 +38358,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="324"/>
+      <c r="A5" s="329"/>
       <c r="B5" s="51">
         <v>4018</v>
       </c>
@@ -38373,7 +38373,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="324"/>
+      <c r="A6" s="329"/>
       <c r="B6" s="51">
         <v>4019</v>
       </c>
@@ -38388,7 +38388,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="324"/>
+      <c r="A7" s="329"/>
       <c r="B7" s="52">
         <v>411</v>
       </c>
@@ -38403,7 +38403,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="324"/>
+      <c r="A8" s="329"/>
       <c r="B8" s="51">
         <v>4118</v>
       </c>
@@ -38418,7 +38418,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="324"/>
+      <c r="A9" s="329"/>
       <c r="B9" s="51">
         <v>4119</v>
       </c>
@@ -38433,7 +38433,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="324"/>
+      <c r="A10" s="329"/>
       <c r="B10" s="52">
         <v>412</v>
       </c>
@@ -38448,7 +38448,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="324"/>
+      <c r="A11" s="329"/>
       <c r="B11" s="51">
         <v>4128</v>
       </c>
@@ -38463,7 +38463,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="324"/>
+      <c r="A12" s="329"/>
       <c r="B12" s="51">
         <v>4129</v>
       </c>
@@ -38479,7 +38479,7 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="324"/>
+      <c r="A13" s="329"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83">
         <v>104368.534</v>
@@ -38493,7 +38493,7 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="325"/>
+      <c r="A14" s="326"/>
       <c r="B14" s="110" t="s">
         <v>47</v>
       </c>
@@ -38548,7 +38548,7 @@
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="324" t="s">
+      <c r="A18" s="329" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="49">
@@ -38566,7 +38566,7 @@
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="324"/>
+      <c r="A19" s="329"/>
       <c r="B19" s="75"/>
       <c r="C19" s="76">
         <v>3131.0328</v>
@@ -38580,7 +38580,7 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="325"/>
+      <c r="A20" s="326"/>
       <c r="B20" s="111" t="s">
         <v>50</v>
       </c>
@@ -38596,7 +38596,7 @@
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="326" t="s">
+      <c r="A21" s="327" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -38614,7 +38614,7 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="327"/>
+      <c r="A22" s="331"/>
       <c r="B22" s="50">
         <v>4428</v>
       </c>
@@ -38630,7 +38630,7 @@
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="327"/>
+      <c r="A23" s="331"/>
       <c r="B23" s="50">
         <v>4429</v>
       </c>
@@ -38646,7 +38646,7 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="327"/>
+      <c r="A24" s="331"/>
       <c r="B24" s="79"/>
       <c r="C24" s="93">
         <v>100912</v>
@@ -38660,7 +38660,7 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="325"/>
+      <c r="A25" s="326"/>
       <c r="B25" s="111" t="s">
         <v>53</v>
       </c>
@@ -38676,7 +38676,7 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="324" t="s">
+      <c r="A26" s="329" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -38694,7 +38694,7 @@
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="324"/>
+      <c r="A27" s="329"/>
       <c r="B27" s="11" t="s">
         <v>66</v>
       </c>
@@ -38710,7 +38710,7 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="324"/>
+      <c r="A28" s="329"/>
       <c r="B28" s="11" t="s">
         <v>67</v>
       </c>
@@ -38726,7 +38726,7 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="324"/>
+      <c r="A29" s="329"/>
       <c r="B29" s="11" t="s">
         <v>68</v>
       </c>
@@ -38742,7 +38742,7 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="324"/>
+      <c r="A30" s="329"/>
       <c r="B30" s="11" t="s">
         <v>69</v>
       </c>
@@ -38758,7 +38758,7 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="324"/>
+      <c r="A31" s="329"/>
       <c r="B31" s="50">
         <v>4178</v>
       </c>
@@ -38774,7 +38774,7 @@
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="324"/>
+      <c r="A32" s="329"/>
       <c r="B32" s="50">
         <v>4179</v>
       </c>
@@ -38790,7 +38790,7 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="324"/>
+      <c r="A33" s="329"/>
       <c r="B33" s="50">
         <v>4308</v>
       </c>
@@ -38806,7 +38806,7 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="324"/>
+      <c r="A34" s="329"/>
       <c r="B34" s="50">
         <v>4309</v>
       </c>
@@ -38826,7 +38826,7 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="324"/>
+      <c r="A35" s="329"/>
       <c r="B35" s="50">
         <v>4398</v>
       </c>
@@ -38842,7 +38842,7 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="324"/>
+      <c r="A36" s="329"/>
       <c r="B36" s="50">
         <v>4399</v>
       </c>
@@ -38858,7 +38858,7 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="324"/>
+      <c r="A37" s="329"/>
       <c r="B37" s="79"/>
       <c r="C37" s="93">
         <v>125188</v>
@@ -38872,7 +38872,7 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="325"/>
+      <c r="A38" s="326"/>
       <c r="B38" s="111" t="s">
         <v>70</v>
       </c>
@@ -38888,7 +38888,7 @@
       <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="326" t="s">
+      <c r="A39" s="327" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -38906,7 +38906,7 @@
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="325"/>
+      <c r="A40" s="326"/>
       <c r="B40" s="15" t="s">
         <v>62</v>
       </c>
@@ -38922,10 +38922,10 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="322" t="s">
+      <c r="A41" s="323" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="323"/>
+      <c r="B41" s="330"/>
       <c r="C41" s="56">
         <v>333598.7928</v>
       </c>
@@ -38955,8 +38955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12:O16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39047,13 +39047,13 @@
       <c r="V1" s="292"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="345" t="s">
+      <c r="A2" s="348" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="331" t="s">
+      <c r="B2" s="336" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="331" t="s">
+      <c r="C2" s="336" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="168" t="s">
@@ -39091,9 +39091,9 @@
       <c r="S2" s="296"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="346"/>
-      <c r="B3" s="332"/>
-      <c r="C3" s="332"/>
+      <c r="A3" s="349"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
       <c r="D3" s="168" t="s">
         <v>150</v>
       </c>
@@ -39129,11 +39129,11 @@
       <c r="S3" s="296"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="346"/>
-      <c r="B4" s="331" t="s">
+      <c r="A4" s="349"/>
+      <c r="B4" s="336" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="331" t="s">
+      <c r="C4" s="336" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="168" t="s">
@@ -39171,9 +39171,9 @@
       <c r="S4" s="296"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="346"/>
-      <c r="B5" s="332"/>
-      <c r="C5" s="332"/>
+      <c r="A5" s="349"/>
+      <c r="B5" s="337"/>
+      <c r="C5" s="337"/>
       <c r="D5" s="168" t="s">
         <v>152</v>
       </c>
@@ -39209,11 +39209,11 @@
       <c r="S5" s="296"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="346"/>
-      <c r="B6" s="331" t="s">
+      <c r="A6" s="349"/>
+      <c r="B6" s="336" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="331" t="s">
+      <c r="C6" s="336" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="168" t="s">
@@ -39251,9 +39251,9 @@
       <c r="S6" s="296"/>
     </row>
     <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="346"/>
-      <c r="B7" s="332"/>
-      <c r="C7" s="332"/>
+      <c r="A7" s="349"/>
+      <c r="B7" s="337"/>
+      <c r="C7" s="337"/>
       <c r="D7" s="168" t="s">
         <v>154</v>
       </c>
@@ -39289,7 +39289,7 @@
       <c r="S7" s="296"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="347"/>
+      <c r="A8" s="350"/>
       <c r="B8" s="133"/>
       <c r="C8" s="136"/>
       <c r="D8" s="145"/>
@@ -39332,13 +39332,13 @@
       <c r="S8" s="298"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="348" t="s">
+      <c r="A9" s="351" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="331" t="s">
+      <c r="B9" s="336" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="335" t="s">
+      <c r="C9" s="362" t="s">
         <v>140</v>
       </c>
       <c r="D9" s="156" t="s">
@@ -39376,9 +39376,9 @@
       <c r="S9" s="296"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="349"/>
-      <c r="B10" s="332"/>
-      <c r="C10" s="336"/>
+      <c r="A10" s="352"/>
+      <c r="B10" s="337"/>
+      <c r="C10" s="363"/>
       <c r="D10" s="173" t="s">
         <v>156</v>
       </c>
@@ -39414,7 +39414,7 @@
       <c r="S10" s="296"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="350"/>
+      <c r="A11" s="353"/>
       <c r="B11" s="134"/>
       <c r="C11" s="135"/>
       <c r="D11" s="130"/>
@@ -39457,13 +39457,13 @@
       <c r="S11" s="300"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="351" t="s">
+      <c r="A12" s="354" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="333" t="s">
+      <c r="B12" s="360" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="337" t="s">
+      <c r="C12" s="364" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="168" t="s">
@@ -39511,9 +39511,9 @@
       <c r="X12" s="290"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="352"/>
-      <c r="B13" s="334"/>
-      <c r="C13" s="338"/>
+      <c r="A13" s="355"/>
+      <c r="B13" s="361"/>
+      <c r="C13" s="365"/>
       <c r="D13" s="168" t="s">
         <v>158</v>
       </c>
@@ -39559,11 +39559,11 @@
       <c r="X13" s="290"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="352"/>
+      <c r="A14" s="355"/>
       <c r="B14" s="340" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="338"/>
+      <c r="C14" s="365"/>
       <c r="D14" s="168" t="s">
         <v>161</v>
       </c>
@@ -39599,16 +39599,16 @@
       <c r="Q14" s="295"/>
       <c r="R14" s="295"/>
       <c r="S14" s="296">
-        <f t="shared" ref="S12:S17" si="1">M14-N14</f>
+        <f t="shared" ref="S14:S17" si="1">M14-N14</f>
         <v>19308.63</v>
       </c>
       <c r="W14" s="290"/>
       <c r="X14" s="290"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="352"/>
-      <c r="B15" s="341"/>
-      <c r="C15" s="338"/>
+      <c r="A15" s="355"/>
+      <c r="B15" s="367"/>
+      <c r="C15" s="365"/>
       <c r="D15" s="168" t="s">
         <v>162</v>
       </c>
@@ -39651,11 +39651,11 @@
       <c r="X15" s="290"/>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="352"/>
-      <c r="B16" s="342" t="s">
+      <c r="A16" s="355"/>
+      <c r="B16" s="345" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="338"/>
+      <c r="C16" s="365"/>
       <c r="D16" s="168" t="s">
         <v>194</v>
       </c>
@@ -39701,9 +39701,9 @@
       <c r="X16" s="290"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="352"/>
-      <c r="B17" s="342"/>
-      <c r="C17" s="339"/>
+      <c r="A17" s="355"/>
+      <c r="B17" s="345"/>
+      <c r="C17" s="366"/>
       <c r="D17" s="168" t="s">
         <v>195</v>
       </c>
@@ -39749,7 +39749,7 @@
       <c r="X17" s="290"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="353"/>
+      <c r="A18" s="356"/>
       <c r="B18" s="131"/>
       <c r="C18" s="132"/>
       <c r="D18" s="153"/>
@@ -39802,13 +39802,13 @@
       <c r="X18" s="290"/>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="354" t="s">
+      <c r="A19" s="357" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="331" t="s">
+      <c r="B19" s="336" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="361" t="s">
+      <c r="C19" s="338" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="156" t="s">
@@ -39852,9 +39852,9 @@
       <c r="X19" s="290"/>
     </row>
     <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="355"/>
-      <c r="B20" s="332"/>
-      <c r="C20" s="362"/>
+      <c r="A20" s="358"/>
+      <c r="B20" s="337"/>
+      <c r="C20" s="339"/>
       <c r="D20" s="122" t="s">
         <v>160</v>
       </c>
@@ -39896,7 +39896,7 @@
       <c r="X20" s="290"/>
     </row>
     <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="355"/>
+      <c r="A21" s="358"/>
       <c r="B21" s="243"/>
       <c r="C21" s="244"/>
       <c r="D21" s="245" t="s">
@@ -39942,8 +39942,8 @@
       <c r="X21" s="290"/>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="355"/>
-      <c r="B22" s="331" t="s">
+      <c r="A22" s="358"/>
+      <c r="B22" s="336" t="s">
         <v>138</v>
       </c>
       <c r="C22" s="340" t="s">
@@ -39980,21 +39980,21 @@
       <c r="N22" s="295"/>
       <c r="O22" s="295"/>
       <c r="P22" s="295">
-        <v>12806.1</v>
+        <v>10266.1</v>
       </c>
       <c r="Q22" s="295"/>
       <c r="R22" s="295"/>
-      <c r="S22" s="383">
+      <c r="S22" s="309">
         <f>M22-N22-O22-P22-Q22-R22</f>
-        <v>17967.900000000001</v>
+        <v>20507.900000000001</v>
       </c>
       <c r="W22" s="290"/>
       <c r="X22" s="290"/>
     </row>
     <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="355"/>
-      <c r="B23" s="366"/>
-      <c r="C23" s="363"/>
+      <c r="A23" s="358"/>
+      <c r="B23" s="344"/>
+      <c r="C23" s="341"/>
       <c r="D23" s="168" t="s">
         <v>162</v>
       </c>
@@ -40026,20 +40026,20 @@
       <c r="N23" s="295"/>
       <c r="O23" s="295"/>
       <c r="P23" s="295">
-        <v>2259.9</v>
+        <v>1539.9</v>
       </c>
       <c r="Q23" s="295"/>
       <c r="R23" s="295"/>
       <c r="S23" s="296">
         <f>M23-N23-O23-P23-Q23-R23</f>
-        <v>3171.1</v>
+        <v>3891.1</v>
       </c>
       <c r="W23" s="290"/>
       <c r="X23" s="290"/>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="355"/>
-      <c r="B24" s="366"/>
+      <c r="A24" s="358"/>
+      <c r="B24" s="344"/>
       <c r="C24" s="340" t="s">
         <v>139</v>
       </c>
@@ -40073,20 +40073,22 @@
       </c>
       <c r="N24" s="295"/>
       <c r="O24" s="295"/>
-      <c r="P24" s="295"/>
+      <c r="P24" s="295">
+        <v>4080</v>
+      </c>
       <c r="Q24" s="295"/>
       <c r="R24" s="295"/>
       <c r="S24" s="296">
-        <f>M24</f>
-        <v>23063</v>
+        <f>M24-P24</f>
+        <v>18983</v>
       </c>
       <c r="W24" s="290"/>
       <c r="X24" s="290"/>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="355"/>
-      <c r="B25" s="366"/>
-      <c r="C25" s="363"/>
+      <c r="A25" s="358"/>
+      <c r="B25" s="344"/>
+      <c r="C25" s="341"/>
       <c r="D25" s="168" t="s">
         <v>162</v>
       </c>
@@ -40117,19 +40119,21 @@
       </c>
       <c r="N25" s="295"/>
       <c r="O25" s="295"/>
-      <c r="P25" s="295"/>
+      <c r="P25" s="295">
+        <v>720</v>
+      </c>
       <c r="Q25" s="295"/>
       <c r="R25" s="295"/>
       <c r="S25" s="296">
-        <f>M25</f>
-        <v>4069</v>
+        <f>M25-P25</f>
+        <v>3349</v>
       </c>
       <c r="W25" s="290"/>
       <c r="X25" s="290"/>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="355"/>
-      <c r="B26" s="366"/>
+      <c r="A26" s="358"/>
+      <c r="B26" s="344"/>
       <c r="C26" s="340" t="s">
         <v>58</v>
       </c>
@@ -40178,9 +40182,9 @@
       <c r="X26" s="290"/>
     </row>
     <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="355"/>
-      <c r="B27" s="366"/>
-      <c r="C27" s="363"/>
+      <c r="A27" s="358"/>
+      <c r="B27" s="344"/>
+      <c r="C27" s="341"/>
       <c r="D27" s="168" t="s">
         <v>162</v>
       </c>
@@ -40226,7 +40230,7 @@
       <c r="X27" s="290"/>
     </row>
     <row r="28" spans="1:24" s="237" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="355"/>
+      <c r="A28" s="358"/>
       <c r="B28" s="249"/>
       <c r="C28" s="244"/>
       <c r="D28" s="239" t="s">
@@ -40275,7 +40279,7 @@
       <c r="R28" s="303"/>
       <c r="S28" s="308">
         <f>SUM(S22:S27)</f>
-        <v>79712.950000000012</v>
+        <v>78172.950000000012</v>
       </c>
       <c r="T28" s="291"/>
       <c r="U28" s="291"/>
@@ -40284,8 +40288,8 @@
       <c r="X28" s="291"/>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="355"/>
-      <c r="B29" s="342" t="s">
+      <c r="A29" s="358"/>
+      <c r="B29" s="345" t="s">
         <v>196</v>
       </c>
       <c r="C29" s="340" t="s">
@@ -40335,9 +40339,9 @@
       <c r="X29" s="290"/>
     </row>
     <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="355"/>
-      <c r="B30" s="342"/>
-      <c r="C30" s="363"/>
+      <c r="A30" s="358"/>
+      <c r="B30" s="345"/>
+      <c r="C30" s="341"/>
       <c r="D30" s="168" t="s">
         <v>210</v>
       </c>
@@ -40382,7 +40386,7 @@
       <c r="X30" s="290"/>
     </row>
     <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="355"/>
+      <c r="A31" s="358"/>
       <c r="B31" s="250"/>
       <c r="C31" s="251"/>
       <c r="D31" s="252" t="s">
@@ -40419,11 +40423,11 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="355"/>
-      <c r="B32" s="359" t="s">
+      <c r="A32" s="358"/>
+      <c r="B32" s="334" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="364" t="s">
+      <c r="C32" s="342" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="122" t="s">
@@ -40467,9 +40471,9 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="355"/>
-      <c r="B33" s="360"/>
-      <c r="C33" s="365"/>
+      <c r="A33" s="358"/>
+      <c r="B33" s="335"/>
+      <c r="C33" s="343"/>
       <c r="D33" s="126" t="s">
         <v>164</v>
       </c>
@@ -40511,7 +40515,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="355"/>
+      <c r="A34" s="358"/>
       <c r="B34" s="256"/>
       <c r="C34" s="257"/>
       <c r="D34" s="258" t="s">
@@ -40561,7 +40565,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="356"/>
+      <c r="A35" s="359"/>
       <c r="B35" s="137"/>
       <c r="C35" s="138"/>
       <c r="D35" s="159"/>
@@ -40605,11 +40609,11 @@
       <c r="R35" s="305"/>
       <c r="S35" s="307">
         <f>S21+S28+S31+S34</f>
-        <v>103664.15000000001</v>
+        <v>102124.15000000001</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="343" t="s">
+      <c r="A36" s="346" t="s">
         <v>137</v>
       </c>
       <c r="B36" s="116" t="s">
@@ -40655,7 +40659,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="344"/>
+      <c r="A37" s="347"/>
       <c r="B37" s="162"/>
       <c r="C37" s="163"/>
       <c r="D37" s="228"/>
@@ -40696,11 +40700,11 @@
     </row>
     <row r="38" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A38" s="129"/>
-      <c r="B38" s="357" t="s">
+      <c r="B38" s="332" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="357"/>
-      <c r="D38" s="358"/>
+      <c r="C38" s="332"/>
+      <c r="D38" s="333"/>
       <c r="E38" s="148">
         <v>333598.7928</v>
       </c>
@@ -40825,22 +40829,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A35"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C9:C10"/>
@@ -40853,6 +40841,22 @@
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A35"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41202,81 +41206,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="378" t="s">
+      <c r="A1" s="369" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="378" t="s">
+      <c r="B1" s="369" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="378" t="s">
+      <c r="C1" s="369" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="377" t="s">
+      <c r="D1" s="368" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="379" t="s">
+      <c r="E1" s="370" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="377" t="s">
+      <c r="F1" s="368" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="377" t="s">
+      <c r="G1" s="368" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="377" t="s">
+      <c r="H1" s="368" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="377" t="s">
+      <c r="I1" s="368" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="377" t="s">
+      <c r="J1" s="368" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="377"/>
-      <c r="L1" s="377"/>
-      <c r="M1" s="377" t="s">
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
+      <c r="M1" s="368" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="377"/>
-      <c r="O1" s="377"/>
-      <c r="P1" s="377"/>
-      <c r="Q1" s="377"/>
-      <c r="R1" s="377"/>
+      <c r="N1" s="368"/>
+      <c r="O1" s="368"/>
+      <c r="P1" s="368"/>
+      <c r="Q1" s="368"/>
+      <c r="R1" s="368"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="378"/>
-      <c r="B2" s="378"/>
-      <c r="C2" s="378"/>
-      <c r="D2" s="377"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="377"/>
-      <c r="G2" s="377"/>
-      <c r="H2" s="377"/>
-      <c r="I2" s="377"/>
-      <c r="J2" s="377" t="s">
+      <c r="A2" s="369"/>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="368"/>
+      <c r="E2" s="370"/>
+      <c r="F2" s="368"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="368"/>
+      <c r="I2" s="368"/>
+      <c r="J2" s="368" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="377"/>
-      <c r="L2" s="377"/>
-      <c r="M2" s="377" t="s">
+      <c r="K2" s="368"/>
+      <c r="L2" s="368"/>
+      <c r="M2" s="368" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="377"/>
-      <c r="O2" s="377"/>
-      <c r="P2" s="377"/>
-      <c r="Q2" s="377"/>
-      <c r="R2" s="377"/>
+      <c r="N2" s="368"/>
+      <c r="O2" s="368"/>
+      <c r="P2" s="368"/>
+      <c r="Q2" s="368"/>
+      <c r="R2" s="368"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="378"/>
-      <c r="B3" s="378"/>
-      <c r="C3" s="378"/>
-      <c r="D3" s="377"/>
-      <c r="E3" s="379"/>
-      <c r="F3" s="377"/>
-      <c r="G3" s="377"/>
-      <c r="H3" s="377"/>
-      <c r="I3" s="377"/>
+      <c r="A3" s="369"/>
+      <c r="B3" s="369"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="368"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="368"/>
+      <c r="G3" s="368"/>
+      <c r="H3" s="368"/>
+      <c r="I3" s="368"/>
       <c r="J3" s="175">
         <v>4420</v>
       </c>
@@ -41306,29 +41310,29 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="368" t="s">
+      <c r="A4" s="371" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="369"/>
-      <c r="C4" s="369"/>
-      <c r="D4" s="369"/>
-      <c r="E4" s="369"/>
-      <c r="F4" s="369"/>
-      <c r="G4" s="369"/>
-      <c r="H4" s="369"/>
-      <c r="I4" s="369"/>
-      <c r="J4" s="369"/>
-      <c r="K4" s="369"/>
-      <c r="L4" s="369"/>
-      <c r="M4" s="369"/>
-      <c r="N4" s="369"/>
-      <c r="O4" s="369"/>
-      <c r="P4" s="369"/>
-      <c r="Q4" s="369"/>
-      <c r="R4" s="370"/>
+      <c r="B4" s="372"/>
+      <c r="C4" s="372"/>
+      <c r="D4" s="372"/>
+      <c r="E4" s="372"/>
+      <c r="F4" s="372"/>
+      <c r="G4" s="372"/>
+      <c r="H4" s="372"/>
+      <c r="I4" s="372"/>
+      <c r="J4" s="372"/>
+      <c r="K4" s="372"/>
+      <c r="L4" s="372"/>
+      <c r="M4" s="372"/>
+      <c r="N4" s="372"/>
+      <c r="O4" s="372"/>
+      <c r="P4" s="372"/>
+      <c r="Q4" s="372"/>
+      <c r="R4" s="373"/>
     </row>
     <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="371" t="s">
+      <c r="A5" s="374" t="s">
         <v>178</v>
       </c>
       <c r="B5" s="375">
@@ -41373,7 +41377,7 @@
       <c r="R5" s="177"/>
     </row>
     <row r="6" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="371"/>
+      <c r="A6" s="374"/>
       <c r="B6" s="375"/>
       <c r="C6" s="376"/>
       <c r="D6" s="177" t="s">
@@ -41411,7 +41415,7 @@
       <c r="R6" s="177"/>
     </row>
     <row r="7" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="371"/>
+      <c r="A7" s="374"/>
       <c r="B7" s="375"/>
       <c r="C7" s="376"/>
       <c r="D7" s="177" t="s">
@@ -41449,7 +41453,7 @@
       <c r="R7" s="177"/>
     </row>
     <row r="8" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="371"/>
+      <c r="A8" s="374"/>
       <c r="B8" s="375"/>
       <c r="C8" s="376"/>
       <c r="D8" s="177" t="s">
@@ -41487,7 +41491,7 @@
       <c r="R8" s="177"/>
     </row>
     <row r="9" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="371"/>
+      <c r="A9" s="374"/>
       <c r="B9" s="375"/>
       <c r="C9" s="376"/>
       <c r="D9" s="177" t="s">
@@ -41525,7 +41529,7 @@
       <c r="R9" s="177"/>
     </row>
     <row r="10" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="371"/>
+      <c r="A10" s="374"/>
       <c r="B10" s="375"/>
       <c r="C10" s="376"/>
       <c r="D10" s="177" t="s">
@@ -41563,7 +41567,7 @@
       <c r="R10" s="177"/>
     </row>
     <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="371"/>
+      <c r="A11" s="374"/>
       <c r="B11" s="375"/>
       <c r="C11" s="376"/>
       <c r="D11" s="177" t="s">
@@ -41601,7 +41605,7 @@
       <c r="R11" s="177"/>
     </row>
     <row r="12" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="371"/>
+      <c r="A12" s="374"/>
       <c r="B12" s="375"/>
       <c r="C12" s="376"/>
       <c r="D12" s="177" t="s">
@@ -41639,7 +41643,7 @@
       <c r="R12" s="177"/>
     </row>
     <row r="13" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="371"/>
+      <c r="A13" s="374"/>
       <c r="B13" s="375"/>
       <c r="C13" s="376"/>
       <c r="D13" s="177" t="s">
@@ -41677,7 +41681,7 @@
       <c r="R13" s="177"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="371"/>
+      <c r="A14" s="374"/>
       <c r="B14" s="375"/>
       <c r="C14" s="376"/>
       <c r="D14" s="177" t="s">
@@ -41711,7 +41715,7 @@
       <c r="R14" s="177"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="371"/>
+      <c r="A15" s="374"/>
       <c r="B15" s="375"/>
       <c r="C15" s="376"/>
       <c r="D15" s="177" t="s">
@@ -41745,7 +41749,7 @@
       <c r="R15" s="177"/>
     </row>
     <row r="16" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="371" t="s">
+      <c r="A16" s="374" t="s">
         <v>183</v>
       </c>
       <c r="B16" s="375">
@@ -41790,7 +41794,7 @@
       <c r="R16" s="177"/>
     </row>
     <row r="17" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="371"/>
+      <c r="A17" s="374"/>
       <c r="B17" s="375"/>
       <c r="C17" s="376"/>
       <c r="D17" s="177" t="s">
@@ -41828,7 +41832,7 @@
       <c r="R17" s="177"/>
     </row>
     <row r="18" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="371"/>
+      <c r="A18" s="374"/>
       <c r="B18" s="375"/>
       <c r="C18" s="376"/>
       <c r="D18" s="177" t="s">
@@ -41866,7 +41870,7 @@
       <c r="R18" s="177"/>
     </row>
     <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="371"/>
+      <c r="A19" s="374"/>
       <c r="B19" s="375"/>
       <c r="C19" s="376"/>
       <c r="D19" s="177" t="s">
@@ -41904,7 +41908,7 @@
       <c r="R19" s="177"/>
     </row>
     <row r="20" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="371"/>
+      <c r="A20" s="374"/>
       <c r="B20" s="375"/>
       <c r="C20" s="376"/>
       <c r="D20" s="177" t="s">
@@ -41942,7 +41946,7 @@
       <c r="R20" s="177"/>
     </row>
     <row r="21" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="371"/>
+      <c r="A21" s="374"/>
       <c r="B21" s="375"/>
       <c r="C21" s="376"/>
       <c r="D21" s="177" t="s">
@@ -41980,7 +41984,7 @@
       <c r="R21" s="193"/>
     </row>
     <row r="22" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="371"/>
+      <c r="A22" s="374"/>
       <c r="B22" s="375"/>
       <c r="C22" s="376"/>
       <c r="D22" s="177" t="s">
@@ -42018,7 +42022,7 @@
       <c r="R22" s="193"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="371"/>
+      <c r="A23" s="374"/>
       <c r="B23" s="375"/>
       <c r="C23" s="376"/>
       <c r="D23" s="177" t="s">
@@ -42052,7 +42056,7 @@
       <c r="R23" s="193"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="371"/>
+      <c r="A24" s="374"/>
       <c r="B24" s="375"/>
       <c r="C24" s="376"/>
       <c r="D24" s="177" t="s">
@@ -42130,35 +42134,35 @@
       <c r="R25" s="193"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="368" t="s">
+      <c r="A26" s="371" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="369"/>
-      <c r="C26" s="369"/>
-      <c r="D26" s="369"/>
-      <c r="E26" s="369"/>
-      <c r="F26" s="369"/>
-      <c r="G26" s="369"/>
-      <c r="H26" s="369"/>
-      <c r="I26" s="369"/>
-      <c r="J26" s="369"/>
-      <c r="K26" s="369"/>
-      <c r="L26" s="369"/>
-      <c r="M26" s="369"/>
-      <c r="N26" s="369"/>
-      <c r="O26" s="369"/>
-      <c r="P26" s="369"/>
-      <c r="Q26" s="369"/>
-      <c r="R26" s="370"/>
+      <c r="B26" s="372"/>
+      <c r="C26" s="372"/>
+      <c r="D26" s="372"/>
+      <c r="E26" s="372"/>
+      <c r="F26" s="372"/>
+      <c r="G26" s="372"/>
+      <c r="H26" s="372"/>
+      <c r="I26" s="372"/>
+      <c r="J26" s="372"/>
+      <c r="K26" s="372"/>
+      <c r="L26" s="372"/>
+      <c r="M26" s="372"/>
+      <c r="N26" s="372"/>
+      <c r="O26" s="372"/>
+      <c r="P26" s="372"/>
+      <c r="Q26" s="372"/>
+      <c r="R26" s="373"/>
     </row>
     <row r="27" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="371" t="s">
+      <c r="A27" s="374" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="372">
+      <c r="B27" s="378">
         <v>44516</v>
       </c>
-      <c r="C27" s="373">
+      <c r="C27" s="379">
         <f>SUM(I27:I31)</f>
         <v>1929.6600000000003</v>
       </c>
@@ -42197,9 +42201,9 @@
       <c r="R27" s="193"/>
     </row>
     <row r="28" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="371"/>
-      <c r="B28" s="372"/>
-      <c r="C28" s="374"/>
+      <c r="A28" s="374"/>
+      <c r="B28" s="378"/>
+      <c r="C28" s="380"/>
       <c r="D28" s="203" t="s">
         <v>119</v>
       </c>
@@ -42235,9 +42239,9 @@
       <c r="R28" s="193"/>
     </row>
     <row r="29" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="371"/>
-      <c r="B29" s="372"/>
-      <c r="C29" s="374"/>
+      <c r="A29" s="374"/>
+      <c r="B29" s="378"/>
+      <c r="C29" s="380"/>
       <c r="D29" s="203" t="s">
         <v>117</v>
       </c>
@@ -42273,9 +42277,9 @@
       <c r="R29" s="193"/>
     </row>
     <row r="30" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="371"/>
-      <c r="B30" s="372"/>
-      <c r="C30" s="374"/>
+      <c r="A30" s="374"/>
+      <c r="B30" s="378"/>
+      <c r="C30" s="380"/>
       <c r="D30" s="177" t="s">
         <v>111</v>
       </c>
@@ -42311,9 +42315,9 @@
       <c r="R30" s="193"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="371"/>
-      <c r="B31" s="372"/>
-      <c r="C31" s="374"/>
+      <c r="A31" s="374"/>
+      <c r="B31" s="378"/>
+      <c r="C31" s="380"/>
       <c r="D31" s="177" t="s">
         <v>181</v>
       </c>
@@ -42345,13 +42349,13 @@
       <c r="R31" s="193"/>
     </row>
     <row r="32" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="371" t="s">
+      <c r="A32" s="374" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="372">
+      <c r="B32" s="378">
         <v>44516</v>
       </c>
-      <c r="C32" s="373">
+      <c r="C32" s="379">
         <f>SUM(I32:I35)</f>
         <v>1294</v>
       </c>
@@ -42390,9 +42394,9 @@
       <c r="R32" s="193"/>
     </row>
     <row r="33" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="371"/>
-      <c r="B33" s="372"/>
-      <c r="C33" s="374"/>
+      <c r="A33" s="374"/>
+      <c r="B33" s="378"/>
+      <c r="C33" s="380"/>
       <c r="D33" s="203" t="s">
         <v>114</v>
       </c>
@@ -42428,9 +42432,9 @@
       <c r="R33" s="193"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="371"/>
-      <c r="B34" s="372"/>
-      <c r="C34" s="374"/>
+      <c r="A34" s="374"/>
+      <c r="B34" s="378"/>
+      <c r="C34" s="380"/>
       <c r="D34" s="203" t="s">
         <v>113</v>
       </c>
@@ -42466,9 +42470,9 @@
       <c r="R34" s="193"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="371"/>
-      <c r="B35" s="372"/>
-      <c r="C35" s="374"/>
+      <c r="A35" s="374"/>
+      <c r="B35" s="378"/>
+      <c r="C35" s="380"/>
       <c r="D35" s="177" t="s">
         <v>181</v>
       </c>
@@ -42588,16 +42592,16 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="367" t="s">
+      <c r="A38" s="377" t="s">
         <v>189</v>
       </c>
-      <c r="B38" s="367"/>
-      <c r="C38" s="367"/>
-      <c r="D38" s="367"/>
-      <c r="E38" s="367"/>
-      <c r="F38" s="367"/>
-      <c r="G38" s="367"/>
-      <c r="H38" s="367"/>
+      <c r="B38" s="377"/>
+      <c r="C38" s="377"/>
+      <c r="D38" s="377"/>
+      <c r="E38" s="377"/>
+      <c r="F38" s="377"/>
+      <c r="G38" s="377"/>
+      <c r="H38" s="377"/>
       <c r="I38" s="195">
         <f>SUM(I5:I37)</f>
         <v>11723.419999999998</v>
@@ -42641,26 +42645,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:C15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C16:C24"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A26:R26"/>
     <mergeCell ref="A27:A31"/>
@@ -42669,6 +42653,26 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="C32:C35"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42696,71 +42700,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="378" t="s">
+      <c r="A1" s="369" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="378" t="s">
+      <c r="B1" s="369" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="378" t="s">
+      <c r="C1" s="369" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="377" t="s">
+      <c r="D1" s="368" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="379" t="s">
+      <c r="E1" s="370" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="377" t="s">
+      <c r="F1" s="368" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="377" t="s">
+      <c r="G1" s="368" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="377" t="s">
+      <c r="H1" s="368" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="377" t="s">
+      <c r="I1" s="368" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="377" t="s">
+      <c r="J1" s="368" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="377"/>
-      <c r="L1" s="377"/>
-      <c r="M1" s="377"/>
-      <c r="N1" s="377"/>
-      <c r="O1" s="377"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
+      <c r="M1" s="368"/>
+      <c r="N1" s="368"/>
+      <c r="O1" s="368"/>
     </row>
     <row r="2" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="378"/>
-      <c r="B2" s="378"/>
-      <c r="C2" s="378"/>
-      <c r="D2" s="377"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="377"/>
-      <c r="G2" s="377"/>
-      <c r="H2" s="377"/>
-      <c r="I2" s="377"/>
-      <c r="J2" s="377" t="s">
+      <c r="A2" s="369"/>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="368"/>
+      <c r="E2" s="370"/>
+      <c r="F2" s="368"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="368"/>
+      <c r="I2" s="368"/>
+      <c r="J2" s="368" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="377"/>
-      <c r="L2" s="377"/>
-      <c r="M2" s="377"/>
-      <c r="N2" s="377"/>
-      <c r="O2" s="377"/>
+      <c r="K2" s="368"/>
+      <c r="L2" s="368"/>
+      <c r="M2" s="368"/>
+      <c r="N2" s="368"/>
+      <c r="O2" s="368"/>
     </row>
     <row r="3" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="378"/>
-      <c r="B3" s="378"/>
-      <c r="C3" s="378"/>
-      <c r="D3" s="377"/>
-      <c r="E3" s="379"/>
-      <c r="F3" s="377"/>
-      <c r="G3" s="377"/>
-      <c r="H3" s="377"/>
-      <c r="I3" s="377"/>
+      <c r="A3" s="369"/>
+      <c r="B3" s="369"/>
+      <c r="C3" s="369"/>
+      <c r="D3" s="368"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="368"/>
+      <c r="G3" s="368"/>
+      <c r="H3" s="368"/>
+      <c r="I3" s="368"/>
       <c r="J3" s="175">
         <v>4428</v>
       </c>
@@ -42781,23 +42785,23 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="368" t="s">
+      <c r="A4" s="371" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="369"/>
-      <c r="C4" s="369"/>
-      <c r="D4" s="369"/>
-      <c r="E4" s="369"/>
-      <c r="F4" s="369"/>
-      <c r="G4" s="369"/>
-      <c r="H4" s="369"/>
-      <c r="I4" s="369"/>
-      <c r="J4" s="369"/>
-      <c r="K4" s="369"/>
-      <c r="L4" s="369"/>
-      <c r="M4" s="369"/>
-      <c r="N4" s="369"/>
-      <c r="O4" s="370"/>
+      <c r="B4" s="372"/>
+      <c r="C4" s="372"/>
+      <c r="D4" s="372"/>
+      <c r="E4" s="372"/>
+      <c r="F4" s="372"/>
+      <c r="G4" s="372"/>
+      <c r="H4" s="372"/>
+      <c r="I4" s="372"/>
+      <c r="J4" s="372"/>
+      <c r="K4" s="372"/>
+      <c r="L4" s="372"/>
+      <c r="M4" s="372"/>
+      <c r="N4" s="372"/>
+      <c r="O4" s="373"/>
     </row>
     <row r="5" spans="1:15" s="219" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="194" t="s">
@@ -42837,23 +42841,23 @@
       <c r="O5" s="177"/>
     </row>
     <row r="6" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="368" t="s">
+      <c r="A6" s="371" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="369"/>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
-      <c r="G6" s="369"/>
-      <c r="H6" s="369"/>
-      <c r="I6" s="369"/>
-      <c r="J6" s="369"/>
-      <c r="K6" s="369"/>
-      <c r="L6" s="369"/>
-      <c r="M6" s="369"/>
-      <c r="N6" s="369"/>
-      <c r="O6" s="370"/>
+      <c r="B6" s="372"/>
+      <c r="C6" s="372"/>
+      <c r="D6" s="372"/>
+      <c r="E6" s="372"/>
+      <c r="F6" s="372"/>
+      <c r="G6" s="372"/>
+      <c r="H6" s="372"/>
+      <c r="I6" s="372"/>
+      <c r="J6" s="372"/>
+      <c r="K6" s="372"/>
+      <c r="L6" s="372"/>
+      <c r="M6" s="372"/>
+      <c r="N6" s="372"/>
+      <c r="O6" s="373"/>
     </row>
     <row r="7" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="221"/>
@@ -43145,17 +43149,17 @@
       <c r="O23" s="177"/>
     </row>
     <row r="24" spans="1:15" s="219" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="380" t="s">
+      <c r="A24" s="381" t="s">
         <v>189</v>
       </c>
-      <c r="B24" s="381"/>
-      <c r="C24" s="381"/>
-      <c r="D24" s="381"/>
-      <c r="E24" s="381"/>
-      <c r="F24" s="381"/>
-      <c r="G24" s="381"/>
-      <c r="H24" s="381"/>
-      <c r="I24" s="382"/>
+      <c r="B24" s="382"/>
+      <c r="C24" s="382"/>
+      <c r="D24" s="382"/>
+      <c r="E24" s="382"/>
+      <c r="F24" s="382"/>
+      <c r="G24" s="382"/>
+      <c r="H24" s="382"/>
+      <c r="I24" s="383"/>
       <c r="J24" s="222"/>
       <c r="K24" s="222"/>
       <c r="L24" s="223">
